--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.671087333243946</v>
+        <v>1.671087333243804</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7792862550575137</v>
+        <v>0.7792862550571442</v>
       </c>
       <c r="E2">
         <v>1.458461221182617</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07329729200106661</v>
+        <v>0.0732972920010786</v>
       </c>
       <c r="I2">
-        <v>0.5651811907334192</v>
+        <v>0.5651811907333766</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6419584511720018</v>
+        <v>0.6419584511723997</v>
       </c>
       <c r="E3">
         <v>1.230587237430186</v>
       </c>
       <c r="F3">
-        <v>6.456414971947481</v>
+        <v>6.456414971947595</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1073214871500521</v>
+        <v>0.1073214871500454</v>
       </c>
       <c r="I3">
-        <v>0.4823248056648382</v>
+        <v>0.482324805664895</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.859182269324847</v>
+        <v>2.859182269324862</v>
       </c>
       <c r="L3">
-        <v>2.984135407106137</v>
+        <v>2.984135407106152</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.298503193296938</v>
+        <v>1.298503193296909</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,25 +497,25 @@
         <v>0.5649770893916468</v>
       </c>
       <c r="E4">
-        <v>1.098967119728911</v>
+        <v>1.098967119728883</v>
       </c>
       <c r="F4">
-        <v>5.724536802957687</v>
+        <v>5.724536802957715</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1307457024154162</v>
+        <v>0.1307457024154095</v>
       </c>
       <c r="I4">
-        <v>0.4340026148449354</v>
+        <v>0.4340026148449425</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.548290557652152</v>
+        <v>2.548290557652138</v>
       </c>
       <c r="L4">
         <v>2.66890674285888</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.24214405530401</v>
+        <v>1.242144055303868</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5350121282334044</v>
+        <v>0.5350121282334328</v>
       </c>
       <c r="E5">
-        <v>1.046888007765062</v>
+        <v>1.04688800776502</v>
       </c>
       <c r="F5">
         <v>5.440496432831708</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1408478624998182</v>
+        <v>0.1408478624998177</v>
       </c>
       <c r="I5">
-        <v>0.4147858045905934</v>
+        <v>0.4147858045906005</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.425338300598767</v>
+        <v>2.425338300598739</v>
       </c>
       <c r="L5">
         <v>2.543628292057065</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.232817491192179</v>
+        <v>1.232817491192009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5301108758641249</v>
+        <v>0.5301108758643238</v>
       </c>
       <c r="E6">
-        <v>1.038321796976206</v>
+        <v>1.038321796976192</v>
       </c>
       <c r="F6">
         <v>5.394089587376982</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1425569485784295</v>
+        <v>0.1425569485784441</v>
       </c>
       <c r="I6">
-        <v>0.4116195929758106</v>
+        <v>0.4116195929758248</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.405119841128752</v>
+        <v>2.405119841128737</v>
       </c>
       <c r="L6">
-        <v>2.522994015839046</v>
+        <v>2.522994015839018</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.297740884136118</v>
+        <v>1.29774088413609</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5645677684248653</v>
+        <v>0.5645677684248938</v>
       </c>
       <c r="E7">
-        <v>1.098259042772781</v>
+        <v>1.098259042772796</v>
       </c>
       <c r="F7">
         <v>5.720653274130285</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1308797820324576</v>
+        <v>0.1308797820324568</v>
       </c>
       <c r="I7">
-        <v>0.4337417117596729</v>
+        <v>0.4337417117596942</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.546618551185034</v>
+        <v>2.54661855118502</v>
       </c>
       <c r="L7">
-        <v>2.667205431586112</v>
+        <v>2.66720543158614</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7301006455226684</v>
+        <v>0.7301006455228674</v>
       </c>
       <c r="E8">
-        <v>1.377792457065894</v>
+        <v>1.37779245706588</v>
       </c>
       <c r="F8">
-        <v>7.297284135226363</v>
+        <v>7.297284135226306</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.08444758141782716</v>
+        <v>0.08444758141781961</v>
       </c>
       <c r="I8">
         <v>0.5359638278663752</v>
@@ -670,7 +670,7 @@
         <v>3.206890692863908</v>
       </c>
       <c r="L8">
-        <v>3.334080861267083</v>
+        <v>3.33408086126704</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.201016110150817</v>
+        <v>2.201016110150988</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.144734871982934</v>
+        <v>1.144734871982507</v>
       </c>
       <c r="E9">
         <v>2.03033836475295</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01884794297589609</v>
+        <v>0.01884794297590764</v>
       </c>
       <c r="I9">
-        <v>0.7688858758667365</v>
+        <v>0.7688858758666939</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.739903611345568</v>
+        <v>4.739903611345653</v>
       </c>
       <c r="L9">
-        <v>4.84374063463747</v>
+        <v>4.843740634637456</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.707094794182808</v>
+        <v>2.707094794182638</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.598430414162095</v>
+        <v>1.598430414162635</v>
       </c>
       <c r="E10">
-        <v>2.688939732914434</v>
+        <v>2.688939732914449</v>
       </c>
       <c r="F10">
-        <v>15.58413606504013</v>
+        <v>15.58413606504007</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0002927999337192233</v>
+        <v>0.000292799933717669</v>
       </c>
       <c r="I10">
-        <v>0.9966151306240079</v>
+        <v>0.9966151306239794</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.251595247001404</v>
+        <v>6.251595247001347</v>
       </c>
       <c r="L10">
-        <v>6.276870096792919</v>
+        <v>6.276870096792905</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.974188050484202</v>
+        <v>2.974188050484599</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.912913956525074</v>
+        <v>1.912913956524818</v>
       </c>
       <c r="E11">
-        <v>3.121559318734811</v>
+        <v>3.121559318734867</v>
       </c>
       <c r="F11">
-        <v>18.53030049786463</v>
+        <v>18.53030049786452</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.008225469214226178</v>
+        <v>0.008225469214233061</v>
       </c>
       <c r="I11">
-        <v>1.142676722104071</v>
+        <v>1.142676722104106</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.209685791115476</v>
+        <v>7.209685791115419</v>
       </c>
       <c r="L11">
         <v>7.154087431819761</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.089628272602852</v>
+        <v>3.089628272603136</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.077529106884697</v>
+        <v>2.077529106884782</v>
       </c>
       <c r="E12">
-        <v>3.342091830718118</v>
+        <v>3.342091830718076</v>
       </c>
       <c r="F12">
-        <v>20.0507566763211</v>
+        <v>20.05075667632076</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.01718553930819625</v>
+        <v>0.01718553930819687</v>
       </c>
       <c r="I12">
-        <v>1.216195733183795</v>
+        <v>1.216195733183817</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.683507378135545</v>
+        <v>7.683507378135488</v>
       </c>
       <c r="L12">
-        <v>7.578233471858482</v>
+        <v>7.578233471858397</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.063663460699502</v>
+        <v>3.063663460699331</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.038448171650543</v>
+        <v>2.038448171650259</v>
       </c>
       <c r="E13">
-        <v>3.290057151779678</v>
+        <v>3.290057151779763</v>
       </c>
       <c r="F13">
-        <v>19.69132764604655</v>
+        <v>19.69132764604706</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.01480551781021119</v>
+        <v>0.01480551781022146</v>
       </c>
       <c r="I13">
-        <v>1.198901542192282</v>
+        <v>1.198901542192303</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.572711329794004</v>
+        <v>7.572711329794146</v>
       </c>
       <c r="L13">
-        <v>7.479652565837597</v>
+        <v>7.479652565837767</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.983257410187207</v>
+        <v>2.98325741018715</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.925060792891458</v>
+        <v>1.925060792892111</v>
       </c>
       <c r="E14">
-        <v>3.137957933320948</v>
+        <v>3.137957933320891</v>
       </c>
       <c r="F14">
-        <v>18.64305654181271</v>
+        <v>18.6430565418126</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.008787007095041544</v>
+        <v>0.008787007095057364</v>
       </c>
       <c r="I14">
         <v>1.148164075713559</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.245290175577367</v>
+        <v>7.24529017557731</v>
       </c>
       <c r="L14">
-        <v>7.186188859988647</v>
+        <v>7.186188859988619</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.936492279182573</v>
+        <v>2.93649227918246</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.863661352448247</v>
+        <v>1.863661352448304</v>
       </c>
       <c r="E15">
-        <v>3.054847866952727</v>
+        <v>3.054847866952784</v>
       </c>
       <c r="F15">
-        <v>18.07223880547508</v>
+        <v>18.07223880547525</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006124580440335814</v>
+        <v>0.006124580440351191</v>
       </c>
       <c r="I15">
-        <v>1.120318146668893</v>
+        <v>1.120318146668907</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.064262905928047</v>
+        <v>7.064262905928103</v>
       </c>
       <c r="L15">
-        <v>7.02259238383283</v>
+        <v>7.022592383832858</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.690803789304823</v>
+        <v>2.690803789304653</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.581421543437841</v>
+        <v>1.581421543437813</v>
       </c>
       <c r="E16">
-        <v>2.665052739949147</v>
+        <v>2.665052739949118</v>
       </c>
       <c r="F16">
-        <v>15.42348732374148</v>
+        <v>15.42348732374143</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0002740605439457422</v>
+        <v>0.0002740605439472965</v>
       </c>
       <c r="I16">
-        <v>0.9884735777370679</v>
+        <v>0.9884735777370821</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>6.197748926155555</v>
       </c>
       <c r="L16">
-        <v>6.226826226888647</v>
+        <v>6.226826226888619</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.552140375569991</v>
+        <v>2.552140375569934</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.444294800721053</v>
+        <v>1.444294800721224</v>
       </c>
       <c r="E17">
-        <v>2.470382396335367</v>
+        <v>2.470382396335381</v>
       </c>
       <c r="F17">
-        <v>14.12432257332273</v>
+        <v>14.1243225733229</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.001936486485933253</v>
+        <v>0.001936486485945021</v>
       </c>
       <c r="I17">
-        <v>0.921803431869634</v>
+        <v>0.9218034318696411</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>5.755802349669437</v>
       </c>
       <c r="L17">
-        <v>5.813218562600369</v>
+        <v>5.813218562600397</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.475193007223766</v>
+        <v>2.47519300722405</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,28 +1029,28 @@
         <v>1.373403786309154</v>
       </c>
       <c r="E18">
-        <v>2.36818659435913</v>
+        <v>2.368186594359145</v>
       </c>
       <c r="F18">
-        <v>13.45020324886934</v>
+        <v>13.45020324886906</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.004167870839482779</v>
+        <v>0.004167870839477006</v>
       </c>
       <c r="I18">
-        <v>0.8865695735736523</v>
+        <v>0.8865695735736239</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.52176335807556</v>
+        <v>5.521763358075503</v>
       </c>
       <c r="L18">
-        <v>5.592151748812924</v>
+        <v>5.592151748812881</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.350492141796337</v>
+        <v>1.350492141796565</v>
       </c>
       <c r="E19">
-        <v>2.334915273771543</v>
+        <v>2.334915273771614</v>
       </c>
       <c r="F19">
-        <v>13.23201620981155</v>
+        <v>13.23201620981166</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.005106167544522311</v>
+        <v>0.005106167544536744</v>
       </c>
       <c r="I19">
-        <v>0.8750629678065351</v>
+        <v>0.8750629678065565</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.445295747161566</v>
+        <v>5.445295747161595</v>
       </c>
       <c r="L19">
-        <v>5.519622494015735</v>
+        <v>5.519622494015763</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.566587034686052</v>
+        <v>2.566587034686222</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.457991484602815</v>
+        <v>1.457991484602843</v>
       </c>
       <c r="E20">
-        <v>2.490000835551712</v>
+        <v>2.490000835551697</v>
       </c>
       <c r="F20">
-        <v>14.25438583233864</v>
+        <v>14.25438583233858</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001617941495546171</v>
+        <v>0.001617941495534847</v>
       </c>
       <c r="I20">
         <v>0.9285485356835963</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.800578825428687</v>
+        <v>5.800578825428659</v>
       </c>
       <c r="L20">
         <v>5.855354137316468</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.006291739355618</v>
+        <v>3.006291739356016</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.956463697818947</v>
+        <v>1.956463697818464</v>
       </c>
       <c r="E21">
-        <v>3.18025660143833</v>
+        <v>3.180256601438359</v>
       </c>
       <c r="F21">
-        <v>18.93416088299301</v>
+        <v>18.93416088299313</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01031564912132238</v>
+        <v>0.01031564912132649</v>
       </c>
       <c r="I21">
-        <v>1.162302598824844</v>
+        <v>1.162302598824873</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.336861690111874</v>
+        <v>7.336861690111931</v>
       </c>
       <c r="L21">
-        <v>7.268581577725342</v>
+        <v>7.268581577725428</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.006291739355618</v>
+        <v>3.006291739356016</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.956463697818947</v>
+        <v>1.956463697818464</v>
       </c>
       <c r="E22">
-        <v>3.18025660143833</v>
+        <v>3.180256601438359</v>
       </c>
       <c r="F22">
-        <v>18.93416088299301</v>
+        <v>18.93416088299313</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01031564912132238</v>
+        <v>0.01031564912132649</v>
       </c>
       <c r="I22">
-        <v>1.162302598824844</v>
+        <v>1.162302598824873</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.336861690111874</v>
+        <v>7.336861690111931</v>
       </c>
       <c r="L22">
-        <v>7.268581577725342</v>
+        <v>7.268581577725428</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.213030813678557</v>
+        <v>2.21303081367887</v>
       </c>
       <c r="E23">
-        <v>3.521096506688892</v>
+        <v>3.521096506688977</v>
       </c>
       <c r="F23">
-        <v>21.28892392890981</v>
+        <v>21.28892392891044</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02652356770331055</v>
+        <v>0.02652356770332043</v>
       </c>
       <c r="I23">
-        <v>1.275456233239936</v>
+        <v>1.275456233239986</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.059562923762911</v>
+        <v>8.059562923763082</v>
       </c>
       <c r="L23">
-        <v>7.9100149136369</v>
+        <v>7.910014913637013</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.560047394237017</v>
+        <v>2.560047394237188</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.451775519328663</v>
+        <v>1.451775519328834</v>
       </c>
       <c r="E24">
-        <v>2.481102367401718</v>
+        <v>2.481102367401803</v>
       </c>
       <c r="F24">
-        <v>14.19536687204459</v>
+        <v>14.19536687204487</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001758115221804912</v>
+        <v>0.001758115221806689</v>
       </c>
       <c r="I24">
-        <v>0.925489853419954</v>
+        <v>0.9254898534199754</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.780275523965628</v>
+        <v>5.78027552396577</v>
       </c>
       <c r="L24">
-        <v>5.836254686565596</v>
+        <v>5.836254686565653</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.029368771812585</v>
+        <v>2.0293687718125</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.016952432835495</v>
+        <v>1.016952432835751</v>
       </c>
       <c r="E25">
-        <v>1.835355649504621</v>
+        <v>1.835355649504635</v>
       </c>
       <c r="F25">
         <v>10.04355935296323</v>
@@ -1307,16 +1307,16 @@
         <v>0.03290543209944019</v>
       </c>
       <c r="I25">
-        <v>0.7000886392257826</v>
+        <v>0.7000886392257897</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.284170810635203</v>
+        <v>4.284170810635175</v>
       </c>
       <c r="L25">
-        <v>4.400682876703044</v>
+        <v>4.40068287670303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.671087333243804</v>
+        <v>1.671087333243946</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7792862550571442</v>
+        <v>0.7792862550575137</v>
       </c>
       <c r="E2">
         <v>1.458461221182617</v>
@@ -430,10 +430,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0732972920010786</v>
+        <v>0.07329729200106661</v>
       </c>
       <c r="I2">
-        <v>0.5651811907333766</v>
+        <v>0.5651811907334192</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -456,31 +456,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6419584511723997</v>
+        <v>0.6419584511720018</v>
       </c>
       <c r="E3">
         <v>1.230587237430186</v>
       </c>
       <c r="F3">
-        <v>6.456414971947595</v>
+        <v>6.456414971947481</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.1073214871500454</v>
+        <v>0.1073214871500521</v>
       </c>
       <c r="I3">
-        <v>0.482324805664895</v>
+        <v>0.4823248056648382</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.859182269324862</v>
+        <v>2.859182269324847</v>
       </c>
       <c r="L3">
-        <v>2.984135407106152</v>
+        <v>2.984135407106137</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.298503193296909</v>
+        <v>1.298503193296938</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,25 +497,25 @@
         <v>0.5649770893916468</v>
       </c>
       <c r="E4">
-        <v>1.098967119728883</v>
+        <v>1.098967119728911</v>
       </c>
       <c r="F4">
-        <v>5.724536802957715</v>
+        <v>5.724536802957687</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.1307457024154095</v>
+        <v>0.1307457024154162</v>
       </c>
       <c r="I4">
-        <v>0.4340026148449425</v>
+        <v>0.4340026148449354</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.548290557652138</v>
+        <v>2.548290557652152</v>
       </c>
       <c r="L4">
         <v>2.66890674285888</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.242144055303868</v>
+        <v>1.24214405530401</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5350121282334328</v>
+        <v>0.5350121282334044</v>
       </c>
       <c r="E5">
-        <v>1.04688800776502</v>
+        <v>1.046888007765062</v>
       </c>
       <c r="F5">
         <v>5.440496432831708</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1408478624998177</v>
+        <v>0.1408478624998182</v>
       </c>
       <c r="I5">
-        <v>0.4147858045906005</v>
+        <v>0.4147858045905934</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.425338300598739</v>
+        <v>2.425338300598767</v>
       </c>
       <c r="L5">
         <v>2.543628292057065</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.232817491192009</v>
+        <v>1.232817491192179</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5301108758643238</v>
+        <v>0.5301108758641249</v>
       </c>
       <c r="E6">
-        <v>1.038321796976192</v>
+        <v>1.038321796976206</v>
       </c>
       <c r="F6">
         <v>5.394089587376982</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1425569485784441</v>
+        <v>0.1425569485784295</v>
       </c>
       <c r="I6">
-        <v>0.4116195929758248</v>
+        <v>0.4116195929758106</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.405119841128737</v>
+        <v>2.405119841128752</v>
       </c>
       <c r="L6">
-        <v>2.522994015839018</v>
+        <v>2.522994015839046</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.29774088413609</v>
+        <v>1.297740884136118</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5645677684248938</v>
+        <v>0.5645677684248653</v>
       </c>
       <c r="E7">
-        <v>1.098259042772796</v>
+        <v>1.098259042772781</v>
       </c>
       <c r="F7">
         <v>5.720653274130285</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1308797820324568</v>
+        <v>0.1308797820324576</v>
       </c>
       <c r="I7">
-        <v>0.4337417117596942</v>
+        <v>0.4337417117596729</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.54661855118502</v>
+        <v>2.546618551185034</v>
       </c>
       <c r="L7">
-        <v>2.66720543158614</v>
+        <v>2.667205431586112</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -646,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7301006455228674</v>
+        <v>0.7301006455226684</v>
       </c>
       <c r="E8">
-        <v>1.37779245706588</v>
+        <v>1.377792457065894</v>
       </c>
       <c r="F8">
-        <v>7.297284135226306</v>
+        <v>7.297284135226363</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.08444758141781961</v>
+        <v>0.08444758141782716</v>
       </c>
       <c r="I8">
         <v>0.5359638278663752</v>
@@ -670,7 +670,7 @@
         <v>3.206890692863908</v>
       </c>
       <c r="L8">
-        <v>3.33408086126704</v>
+        <v>3.334080861267083</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.201016110150988</v>
+        <v>2.201016110150817</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.144734871982507</v>
+        <v>1.144734871982934</v>
       </c>
       <c r="E9">
         <v>2.03033836475295</v>
@@ -696,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.01884794297590764</v>
+        <v>0.01884794297589609</v>
       </c>
       <c r="I9">
-        <v>0.7688858758666939</v>
+        <v>0.7688858758667365</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.739903611345653</v>
+        <v>4.739903611345568</v>
       </c>
       <c r="L9">
-        <v>4.843740634637456</v>
+        <v>4.84374063463747</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.707094794182638</v>
+        <v>2.707094794182808</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.598430414162635</v>
+        <v>1.598430414162095</v>
       </c>
       <c r="E10">
-        <v>2.688939732914449</v>
+        <v>2.688939732914434</v>
       </c>
       <c r="F10">
-        <v>15.58413606504007</v>
+        <v>15.58413606504013</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.000292799933717669</v>
+        <v>0.0002927999337192233</v>
       </c>
       <c r="I10">
-        <v>0.9966151306239794</v>
+        <v>0.9966151306240079</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>6.251595247001347</v>
+        <v>6.251595247001404</v>
       </c>
       <c r="L10">
-        <v>6.276870096792905</v>
+        <v>6.276870096792919</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.974188050484599</v>
+        <v>2.974188050484202</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.912913956524818</v>
+        <v>1.912913956525074</v>
       </c>
       <c r="E11">
-        <v>3.121559318734867</v>
+        <v>3.121559318734811</v>
       </c>
       <c r="F11">
-        <v>18.53030049786452</v>
+        <v>18.53030049786463</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.008225469214233061</v>
+        <v>0.008225469214226178</v>
       </c>
       <c r="I11">
-        <v>1.142676722104106</v>
+        <v>1.142676722104071</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.209685791115419</v>
+        <v>7.209685791115476</v>
       </c>
       <c r="L11">
         <v>7.154087431819761</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.089628272603136</v>
+        <v>3.089628272602852</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.077529106884782</v>
+        <v>2.077529106884697</v>
       </c>
       <c r="E12">
-        <v>3.342091830718076</v>
+        <v>3.342091830718118</v>
       </c>
       <c r="F12">
-        <v>20.05075667632076</v>
+        <v>20.0507566763211</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.01718553930819687</v>
+        <v>0.01718553930819625</v>
       </c>
       <c r="I12">
-        <v>1.216195733183817</v>
+        <v>1.216195733183795</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>7.683507378135488</v>
+        <v>7.683507378135545</v>
       </c>
       <c r="L12">
-        <v>7.578233471858397</v>
+        <v>7.578233471858482</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.063663460699331</v>
+        <v>3.063663460699502</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.038448171650259</v>
+        <v>2.038448171650543</v>
       </c>
       <c r="E13">
-        <v>3.290057151779763</v>
+        <v>3.290057151779678</v>
       </c>
       <c r="F13">
-        <v>19.69132764604706</v>
+        <v>19.69132764604655</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.01480551781022146</v>
+        <v>0.01480551781021119</v>
       </c>
       <c r="I13">
-        <v>1.198901542192303</v>
+        <v>1.198901542192282</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>7.572711329794146</v>
+        <v>7.572711329794004</v>
       </c>
       <c r="L13">
-        <v>7.479652565837767</v>
+        <v>7.479652565837597</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.98325741018715</v>
+        <v>2.983257410187207</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.925060792892111</v>
+        <v>1.925060792891458</v>
       </c>
       <c r="E14">
-        <v>3.137957933320891</v>
+        <v>3.137957933320948</v>
       </c>
       <c r="F14">
-        <v>18.6430565418126</v>
+        <v>18.64305654181271</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.008787007095057364</v>
+        <v>0.008787007095041544</v>
       </c>
       <c r="I14">
         <v>1.148164075713559</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>7.24529017557731</v>
+        <v>7.245290175577367</v>
       </c>
       <c r="L14">
-        <v>7.186188859988619</v>
+        <v>7.186188859988647</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.93649227918246</v>
+        <v>2.936492279182573</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.863661352448304</v>
+        <v>1.863661352448247</v>
       </c>
       <c r="E15">
-        <v>3.054847866952784</v>
+        <v>3.054847866952727</v>
       </c>
       <c r="F15">
-        <v>18.07223880547525</v>
+        <v>18.07223880547508</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006124580440351191</v>
+        <v>0.006124580440335814</v>
       </c>
       <c r="I15">
-        <v>1.120318146668907</v>
+        <v>1.120318146668893</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>7.064262905928103</v>
+        <v>7.064262905928047</v>
       </c>
       <c r="L15">
-        <v>7.022592383832858</v>
+        <v>7.02259238383283</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,28 +944,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.690803789304653</v>
+        <v>2.690803789304823</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.581421543437813</v>
+        <v>1.581421543437841</v>
       </c>
       <c r="E16">
-        <v>2.665052739949118</v>
+        <v>2.665052739949147</v>
       </c>
       <c r="F16">
-        <v>15.42348732374143</v>
+        <v>15.42348732374148</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0002740605439472965</v>
+        <v>0.0002740605439457422</v>
       </c>
       <c r="I16">
-        <v>0.9884735777370821</v>
+        <v>0.9884735777370679</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>6.197748926155555</v>
       </c>
       <c r="L16">
-        <v>6.226826226888619</v>
+        <v>6.226826226888647</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.552140375569934</v>
+        <v>2.552140375569991</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.444294800721224</v>
+        <v>1.444294800721053</v>
       </c>
       <c r="E17">
-        <v>2.470382396335381</v>
+        <v>2.470382396335367</v>
       </c>
       <c r="F17">
-        <v>14.1243225733229</v>
+        <v>14.12432257332273</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.001936486485945021</v>
+        <v>0.001936486485933253</v>
       </c>
       <c r="I17">
-        <v>0.9218034318696411</v>
+        <v>0.921803431869634</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>5.755802349669437</v>
       </c>
       <c r="L17">
-        <v>5.813218562600397</v>
+        <v>5.813218562600369</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.47519300722405</v>
+        <v>2.475193007223766</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1029,28 +1029,28 @@
         <v>1.373403786309154</v>
       </c>
       <c r="E18">
-        <v>2.368186594359145</v>
+        <v>2.36818659435913</v>
       </c>
       <c r="F18">
-        <v>13.45020324886906</v>
+        <v>13.45020324886934</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.004167870839477006</v>
+        <v>0.004167870839482779</v>
       </c>
       <c r="I18">
-        <v>0.8865695735736239</v>
+        <v>0.8865695735736523</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.521763358075503</v>
+        <v>5.52176335807556</v>
       </c>
       <c r="L18">
-        <v>5.592151748812881</v>
+        <v>5.592151748812924</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1064,31 +1064,31 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.350492141796565</v>
+        <v>1.350492141796337</v>
       </c>
       <c r="E19">
-        <v>2.334915273771614</v>
+        <v>2.334915273771543</v>
       </c>
       <c r="F19">
-        <v>13.23201620981166</v>
+        <v>13.23201620981155</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.005106167544536744</v>
+        <v>0.005106167544522311</v>
       </c>
       <c r="I19">
-        <v>0.8750629678065565</v>
+        <v>0.8750629678065351</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.445295747161595</v>
+        <v>5.445295747161566</v>
       </c>
       <c r="L19">
-        <v>5.519622494015763</v>
+        <v>5.519622494015735</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.566587034686222</v>
+        <v>2.566587034686052</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.457991484602843</v>
+        <v>1.457991484602815</v>
       </c>
       <c r="E20">
-        <v>2.490000835551697</v>
+        <v>2.490000835551712</v>
       </c>
       <c r="F20">
-        <v>14.25438583233858</v>
+        <v>14.25438583233864</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001617941495534847</v>
+        <v>0.001617941495546171</v>
       </c>
       <c r="I20">
         <v>0.9285485356835963</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.800578825428659</v>
+        <v>5.800578825428687</v>
       </c>
       <c r="L20">
         <v>5.855354137316468</v>
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.006291739356016</v>
+        <v>3.006291739355618</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.956463697818464</v>
+        <v>1.956463697818947</v>
       </c>
       <c r="E21">
-        <v>3.180256601438359</v>
+        <v>3.18025660143833</v>
       </c>
       <c r="F21">
-        <v>18.93416088299313</v>
+        <v>18.93416088299301</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.01031564912132649</v>
+        <v>0.01031564912132238</v>
       </c>
       <c r="I21">
-        <v>1.162302598824873</v>
+        <v>1.162302598824844</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>7.336861690111931</v>
+        <v>7.336861690111874</v>
       </c>
       <c r="L21">
-        <v>7.268581577725428</v>
+        <v>7.268581577725342</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.006291739356016</v>
+        <v>3.006291739355618</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.956463697818464</v>
+        <v>1.956463697818947</v>
       </c>
       <c r="E22">
-        <v>3.180256601438359</v>
+        <v>3.18025660143833</v>
       </c>
       <c r="F22">
-        <v>18.93416088299313</v>
+        <v>18.93416088299301</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.01031564912132649</v>
+        <v>0.01031564912132238</v>
       </c>
       <c r="I22">
-        <v>1.162302598824873</v>
+        <v>1.162302598824844</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.336861690111931</v>
+        <v>7.336861690111874</v>
       </c>
       <c r="L22">
-        <v>7.268581577725428</v>
+        <v>7.268581577725342</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.21303081367887</v>
+        <v>2.213030813678557</v>
       </c>
       <c r="E23">
-        <v>3.521096506688977</v>
+        <v>3.521096506688892</v>
       </c>
       <c r="F23">
-        <v>21.28892392891044</v>
+        <v>21.28892392890981</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02652356770332043</v>
+        <v>0.02652356770331055</v>
       </c>
       <c r="I23">
-        <v>1.275456233239986</v>
+        <v>1.275456233239936</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.059562923763082</v>
+        <v>8.059562923762911</v>
       </c>
       <c r="L23">
-        <v>7.910014913637013</v>
+        <v>7.9100149136369</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.560047394237188</v>
+        <v>2.560047394237017</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.451775519328834</v>
+        <v>1.451775519328663</v>
       </c>
       <c r="E24">
-        <v>2.481102367401803</v>
+        <v>2.481102367401718</v>
       </c>
       <c r="F24">
-        <v>14.19536687204487</v>
+        <v>14.19536687204459</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001758115221806689</v>
+        <v>0.001758115221804912</v>
       </c>
       <c r="I24">
-        <v>0.9254898534199754</v>
+        <v>0.925489853419954</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.78027552396577</v>
+        <v>5.780275523965628</v>
       </c>
       <c r="L24">
-        <v>5.836254686565653</v>
+        <v>5.836254686565596</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.0293687718125</v>
+        <v>2.029368771812585</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.016952432835751</v>
+        <v>1.016952432835495</v>
       </c>
       <c r="E25">
-        <v>1.835355649504635</v>
+        <v>1.835355649504621</v>
       </c>
       <c r="F25">
         <v>10.04355935296323</v>
@@ -1307,16 +1307,16 @@
         <v>0.03290543209944019</v>
       </c>
       <c r="I25">
-        <v>0.7000886392257897</v>
+        <v>0.7000886392257826</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.284170810635175</v>
+        <v>4.284170810635203</v>
       </c>
       <c r="L25">
-        <v>4.40068287670303</v>
+        <v>4.400682876703044</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.671087333243946</v>
+        <v>1.664636060421032</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7792862550575137</v>
+        <v>0.7614978545444444</v>
       </c>
       <c r="E2">
-        <v>1.458461221182617</v>
+        <v>1.428811992392212</v>
       </c>
       <c r="F2">
-        <v>7.767452019868585</v>
+        <v>7.661381183500822</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006501937723645469</v>
       </c>
       <c r="H2">
-        <v>0.07329729200106661</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5651811907334192</v>
+        <v>0.07895707181988465</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5545453130265372</v>
       </c>
       <c r="K2">
-        <v>3.397319728341671</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.524565695033502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>3.35711725836822</v>
+      </c>
+      <c r="M2">
+        <v>3.490587410143448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.438287544282247</v>
+        <v>1.433024929483679</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6419584511720018</v>
+        <v>0.628283985208526</v>
       </c>
       <c r="E3">
-        <v>1.230587237430186</v>
+        <v>1.205325992865838</v>
       </c>
       <c r="F3">
-        <v>6.456414971947481</v>
+        <v>6.3847700289339</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006771615771859957</v>
       </c>
       <c r="H3">
-        <v>0.1073214871500521</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4823248056648382</v>
+        <v>0.1139136289167206</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.473002454635342</v>
       </c>
       <c r="K3">
-        <v>2.859182269324847</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2.984135407106137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>2.827669188231056</v>
+      </c>
+      <c r="M3">
+        <v>2.957383877521721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.298503193296938</v>
+        <v>1.29390324793593</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5649770893916468</v>
+        <v>0.5535776112789108</v>
       </c>
       <c r="E4">
-        <v>1.098967119728911</v>
+        <v>1.076083948043788</v>
       </c>
       <c r="F4">
-        <v>5.724536802957687</v>
+        <v>5.671840764827351</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006934002189229669</v>
       </c>
       <c r="H4">
-        <v>0.1307457024154162</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4340026148449354</v>
+        <v>0.1378845689933401</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4253852929891337</v>
       </c>
       <c r="K4">
-        <v>2.548290557652152</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.66890674285888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>2.521516530024101</v>
+      </c>
+      <c r="M4">
+        <v>2.646103860920846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.24214405530401</v>
+        <v>1.237802882162612</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5350121282334044</v>
+        <v>0.5244973784204774</v>
       </c>
       <c r="E5">
-        <v>1.046888007765062</v>
+        <v>1.024919669668321</v>
       </c>
       <c r="F5">
-        <v>5.440496432831708</v>
+        <v>5.395150954245167</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006999803407758571</v>
       </c>
       <c r="H5">
-        <v>0.1408478624998182</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4147858045905934</v>
+        <v>0.1482058748922528</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4064382707585921</v>
       </c>
       <c r="K5">
-        <v>2.425338300598767</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2.543628292057065</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>2.400393381199947</v>
+      </c>
+      <c r="M5">
+        <v>2.522350976942164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.232817491192179</v>
+        <v>1.228518730419864</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5301108758641249</v>
+        <v>0.5197409372791526</v>
       </c>
       <c r="E6">
-        <v>1.038321796976206</v>
+        <v>1.016502647705437</v>
       </c>
       <c r="F6">
-        <v>5.394089587376982</v>
+        <v>5.349946211713018</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007010717519898675</v>
       </c>
       <c r="H6">
-        <v>0.1425569485784295</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4116195929758106</v>
+        <v>0.1499511932749238</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4033159756968132</v>
       </c>
       <c r="K6">
-        <v>2.405119841128752</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2.522994015839046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>2.380473536588852</v>
+      </c>
+      <c r="M6">
+        <v>2.501965844911211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.297740884136118</v>
+        <v>1.293144468464703</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5645677684248653</v>
+        <v>0.5531803718915569</v>
       </c>
       <c r="E7">
-        <v>1.098259042772781</v>
+        <v>1.075388402274541</v>
       </c>
       <c r="F7">
-        <v>5.720653274130285</v>
+        <v>5.668057684816972</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006934890634072154</v>
       </c>
       <c r="H7">
-        <v>0.1308797820324576</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4337417117596729</v>
+        <v>0.1380216158752017</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4251280909867887</v>
       </c>
       <c r="K7">
-        <v>2.546618551185034</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>2.667205431586112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>2.519869555141682</v>
+      </c>
+      <c r="M7">
+        <v>2.644423421300402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.59003178758951</v>
+        <v>1.584008526892546</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.7301006455226684</v>
+        <v>0.713798382511726</v>
       </c>
       <c r="E8">
-        <v>1.377792457065894</v>
+        <v>1.349740797385394</v>
       </c>
       <c r="F8">
-        <v>7.297284135226363</v>
+        <v>7.20367182613731</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000659589023819894</v>
       </c>
       <c r="H8">
-        <v>0.08444758141782716</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5359638278663752</v>
+        <v>0.09043627691658029</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.525807936274667</v>
       </c>
       <c r="K8">
-        <v>3.206890692863908</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.334080861267083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>3.169843973294022</v>
+      </c>
+      <c r="M8">
+        <v>3.302725277956156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.201016110150817</v>
+        <v>2.191167761672034</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.144734871982934</v>
+        <v>1.114989505823189</v>
       </c>
       <c r="E9">
-        <v>2.03033836475295</v>
+        <v>1.987395151507229</v>
       </c>
       <c r="F9">
-        <v>11.26712385662839</v>
+        <v>11.06007534861908</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0005875192545973147</v>
       </c>
       <c r="H9">
-        <v>0.01884794297589609</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7688858758667365</v>
+        <v>0.02213337180065134</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7541929687034994</v>
       </c>
       <c r="K9">
-        <v>4.739903611345568</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>4.84374063463747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>4.673739755648569</v>
+      </c>
+      <c r="M9">
+        <v>4.788249191539379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.707094794182808</v>
+        <v>2.691724428564271</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.598430414162095</v>
+        <v>1.548886989210672</v>
       </c>
       <c r="E10">
-        <v>2.688939732914434</v>
+        <v>2.622755313269494</v>
       </c>
       <c r="F10">
-        <v>15.58413606504013</v>
+        <v>15.20816903660693</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0005224602629590693</v>
       </c>
       <c r="H10">
-        <v>0.0002927999337192233</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9966151306240079</v>
+        <v>0.00037991625426681</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.9746531784086585</v>
       </c>
       <c r="K10">
-        <v>6.251595247001404</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.276870096792919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>6.140968094832743</v>
+      </c>
+      <c r="M10">
+        <v>6.184686794764076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.974188050484202</v>
+        <v>2.952883561344549</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.912913956525074</v>
+        <v>1.841942215549949</v>
       </c>
       <c r="E11">
-        <v>3.121559318734811</v>
+        <v>3.029288645135708</v>
       </c>
       <c r="F11">
-        <v>18.53030049786463</v>
+        <v>17.97065550592237</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004837586644806995</v>
       </c>
       <c r="H11">
-        <v>0.008225469214226178</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.142676722104071</v>
+        <v>0.00539064401722178</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.112421834381088</v>
       </c>
       <c r="K11">
-        <v>7.209685791115476</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.154087431819761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>7.04995425849765</v>
+      </c>
+      <c r="M11">
+        <v>7.021470904184866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.089628272602852</v>
+        <v>3.063726273629982</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.077529106884697</v>
+        <v>1.989941775607491</v>
       </c>
       <c r="E12">
-        <v>3.342091830718118</v>
+        <v>3.229267540981809</v>
       </c>
       <c r="F12">
-        <v>20.0507566763211</v>
+        <v>19.34856112858415</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004655162910491207</v>
       </c>
       <c r="H12">
-        <v>0.01718553930819625</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.216195733183795</v>
+        <v>0.0122724696592309</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.179359214373008</v>
       </c>
       <c r="K12">
-        <v>7.683507378135545</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.578233471858482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>7.485407157681351</v>
+      </c>
+      <c r="M12">
+        <v>7.41404609918618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.063663460699502</v>
+        <v>3.038990947346349</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.038448171650543</v>
+        <v>1.955303972462531</v>
       </c>
       <c r="E13">
-        <v>3.290057151779678</v>
+        <v>3.18274744004303</v>
       </c>
       <c r="F13">
-        <v>19.69132764604655</v>
+        <v>19.02725271016936</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004697134053910101</v>
       </c>
       <c r="H13">
-        <v>0.01480551781021119</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.198901542192282</v>
+        <v>0.0104376099506816</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.1638335860778</v>
       </c>
       <c r="K13">
-        <v>7.572711329794004</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.479652565837597</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>7.384886091214042</v>
+      </c>
+      <c r="M13">
+        <v>7.323918712468469</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.983257410187207</v>
+        <v>2.961660065214744</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.925060792891458</v>
+        <v>1.853030652259122</v>
       </c>
       <c r="E14">
-        <v>3.137957933320948</v>
+        <v>3.044384350564087</v>
       </c>
       <c r="F14">
-        <v>18.64305654181271</v>
+        <v>18.07433224723229</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004823634167087353</v>
       </c>
       <c r="H14">
-        <v>0.008787007095041544</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.148164075713559</v>
+        <v>0.005816156176384424</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.117492898205811</v>
       </c>
       <c r="K14">
-        <v>7.245290175577367</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.186188859988647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>7.083119878965732</v>
+      </c>
+      <c r="M14">
+        <v>7.051565273610578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.936492279182573</v>
+        <v>2.916314450340394</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.863661352448247</v>
+        <v>1.796761170861089</v>
       </c>
       <c r="E15">
-        <v>3.054847866952727</v>
+        <v>2.967579249880998</v>
       </c>
       <c r="F15">
-        <v>18.07223880547508</v>
+        <v>17.54751782708126</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004894932221649452</v>
       </c>
       <c r="H15">
-        <v>0.006124580440335814</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.120318146668893</v>
+        <v>0.003818835509879381</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.091659989654993</v>
       </c>
       <c r="K15">
-        <v>7.064262905928047</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.02259238383283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>6.913904195331526</v>
+      </c>
+      <c r="M15">
+        <v>6.897690178156665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.690803789304823</v>
+        <v>2.675687699358662</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.581421543437841</v>
+        <v>1.53279455403154</v>
       </c>
       <c r="E16">
-        <v>2.665052739949147</v>
+        <v>2.599967422937794</v>
       </c>
       <c r="F16">
-        <v>15.42348732374148</v>
+        <v>15.05536441668966</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0005246947832293499</v>
       </c>
       <c r="H16">
-        <v>0.0002740605439457422</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9884735777370679</v>
+        <v>0.000495662271684516</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.9668586839060822</v>
       </c>
       <c r="K16">
-        <v>6.197748926155555</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.226826226888647</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>6.089205558948976</v>
+      </c>
+      <c r="M16">
+        <v>6.136360099302323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.552140375569991</v>
+        <v>2.53890829294113</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.444294800721053</v>
+        <v>1.40244797073106</v>
       </c>
       <c r="E17">
-        <v>2.470382396335367</v>
+        <v>2.413368956910773</v>
       </c>
       <c r="F17">
-        <v>14.12432257332273</v>
+        <v>13.81417788927581</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.000543259550202791</v>
       </c>
       <c r="H17">
-        <v>0.001936486485933253</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.921803431869634</v>
+        <v>0.003187629967838612</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.9027289441739867</v>
       </c>
       <c r="K17">
-        <v>5.755802349669437</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.813218562600369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>5.662612492907954</v>
+      </c>
+      <c r="M17">
+        <v>5.735410375521084</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.475193007223766</v>
+        <v>2.462837891167794</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.373403786309154</v>
+        <v>1.334704936685682</v>
       </c>
       <c r="E18">
-        <v>2.36818659435913</v>
+        <v>2.314879876328064</v>
       </c>
       <c r="F18">
-        <v>13.45020324886934</v>
+        <v>13.16693473913392</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0005532544664146622</v>
       </c>
       <c r="H18">
-        <v>0.004167870839482779</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8865695735736523</v>
+        <v>0.005920842997183762</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8686559283690158</v>
       </c>
       <c r="K18">
-        <v>5.52176335807556</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.592151748812924</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>5.435657346882294</v>
+      </c>
+      <c r="M18">
+        <v>5.520187834644361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.449533056572022</v>
+        <v>2.4374496246935</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.350492141796337</v>
+        <v>1.31276718425778</v>
       </c>
       <c r="E19">
-        <v>2.334915273771543</v>
+        <v>2.282749295888649</v>
       </c>
       <c r="F19">
-        <v>13.23201620981155</v>
+        <v>12.95705549952066</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0005565452264266564</v>
       </c>
       <c r="H19">
-        <v>0.005106167544522311</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8750629678065351</v>
+        <v>0.007017899322931287</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.8575057289706365</v>
       </c>
       <c r="K19">
-        <v>5.445295747161566</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.519622494015735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>5.361374527944633</v>
+      </c>
+      <c r="M19">
+        <v>5.449461704196068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.566587034686052</v>
+        <v>2.55317862968667</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.457991484602815</v>
+        <v>1.415511008184922</v>
       </c>
       <c r="E20">
-        <v>2.490000835551712</v>
+        <v>2.43223789856691</v>
       </c>
       <c r="F20">
-        <v>14.25438583233864</v>
+        <v>13.93882761396316</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0005413603475721076</v>
       </c>
       <c r="H20">
-        <v>0.001617941495546171</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9285485356835963</v>
+        <v>0.002770044521386517</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.9092388494103361</v>
       </c>
       <c r="K20">
-        <v>5.800578825428687</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.855354137316468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>5.705959338797385</v>
+      </c>
+      <c r="M20">
+        <v>5.776366837259872</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.006291739355618</v>
+        <v>2.983907181916265</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.956463697818947</v>
+        <v>1.881588452451297</v>
       </c>
       <c r="E21">
-        <v>3.18025660143833</v>
+        <v>3.083175746733914</v>
       </c>
       <c r="F21">
-        <v>18.93416088299301</v>
+        <v>18.34102910934462</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004787916898512271</v>
       </c>
       <c r="H21">
-        <v>0.01031564912132238</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.162302598824844</v>
+        <v>0.006981956743981166</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.130510106677228</v>
       </c>
       <c r="K21">
-        <v>7.336861690111874</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.268581577725342</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>7.16813149898789</v>
+      </c>
+      <c r="M21">
+        <v>7.128559622976582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.006291739355618</v>
+        <v>3.405548747674118</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.956463697818947</v>
+        <v>2.64786262654718</v>
       </c>
       <c r="E22">
-        <v>3.18025660143833</v>
+        <v>4.087345566729425</v>
       </c>
       <c r="F22">
-        <v>18.93416088299301</v>
+        <v>25.28221951464479</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0003932048552028111</v>
       </c>
       <c r="H22">
-        <v>0.01031564912132238</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.162302598824844</v>
+        <v>0.06630321117607485</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.461542824718379</v>
       </c>
       <c r="K22">
-        <v>7.336861690111874</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.268581577725342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>9.236586611088768</v>
+      </c>
+      <c r="M22">
+        <v>8.932167217611351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.172927994030715</v>
+        <v>3.141839317268534</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.213030813678557</v>
+        <v>2.106704963823319</v>
       </c>
       <c r="E23">
-        <v>3.521096506688892</v>
+        <v>3.384912465245222</v>
       </c>
       <c r="F23">
-        <v>21.28892392890981</v>
+        <v>20.42597369256652</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004516789340744092</v>
       </c>
       <c r="H23">
-        <v>0.02652356770331055</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.275456233239936</v>
+        <v>0.01937049412091429</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.231112878169363</v>
       </c>
       <c r="K23">
-        <v>8.059562923762911</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.9100149136369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>7.818052700339251</v>
+      </c>
+      <c r="M23">
+        <v>7.710117745472161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.560047394237017</v>
+        <v>2.546719303195289</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.451775519328663</v>
+        <v>1.409583692846809</v>
       </c>
       <c r="E24">
-        <v>2.481102367401718</v>
+        <v>2.423680989570585</v>
       </c>
       <c r="F24">
-        <v>14.19536687204459</v>
+        <v>13.88227486655677</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0005422210014817802</v>
       </c>
       <c r="H24">
-        <v>0.001758115221804912</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.925489853419954</v>
+        <v>0.002955256629474379</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.9062873702129224</v>
       </c>
       <c r="K24">
-        <v>5.780275523965628</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.836254686565596</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>5.686307435448356</v>
+      </c>
+      <c r="M24">
+        <v>5.757804625117586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.029368771812585</v>
+        <v>2.02076819176159</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.016952432835495</v>
+        <v>0.9916283359046076</v>
       </c>
       <c r="E25">
-        <v>1.835355649504621</v>
+        <v>1.79741151300361</v>
       </c>
       <c r="F25">
-        <v>10.04355935296323</v>
+        <v>9.87398248464055</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006081822132615261</v>
       </c>
       <c r="H25">
-        <v>0.03290543209944019</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.7000886392257826</v>
+        <v>0.03701803316035646</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6869329891081932</v>
       </c>
       <c r="K25">
-        <v>4.284170810635203</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>4.400682876703044</v>
+        <v>4.227712260066056</v>
+      </c>
+      <c r="M25">
+        <v>4.353222515918262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.664636060421032</v>
+        <v>1.665910458767314</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7614978545444444</v>
+        <v>0.01914705362288416</v>
       </c>
       <c r="E2">
-        <v>1.428811992392212</v>
+        <v>0.4405224396361689</v>
       </c>
       <c r="F2">
-        <v>7.661381183500822</v>
+        <v>2.133528490642504</v>
       </c>
       <c r="G2">
-        <v>0.0006501937723645469</v>
+        <v>0.0007541048172844935</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.07895707181988465</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5545453130265372</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.926896184369511</v>
       </c>
       <c r="L2">
-        <v>3.35711725836822</v>
+        <v>0.8201236880708791</v>
       </c>
       <c r="M2">
-        <v>3.490587410143448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.7962462132357828</v>
+      </c>
+      <c r="O2">
+        <v>1.697348864514609</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.433024929483679</v>
+        <v>1.464183817066868</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.628283985208526</v>
+        <v>0.0186825668815267</v>
       </c>
       <c r="E3">
-        <v>1.205325992865838</v>
+        <v>0.3966483006868486</v>
       </c>
       <c r="F3">
-        <v>6.3847700289339</v>
+        <v>1.870956034229252</v>
       </c>
       <c r="G3">
-        <v>0.0006771615771859957</v>
+        <v>0.0007635197813755656</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1139136289167206</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.473002454635342</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.66291166202933</v>
       </c>
       <c r="L3">
-        <v>2.827669188231056</v>
+        <v>0.7078942305296607</v>
       </c>
       <c r="M3">
-        <v>2.957383877521721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.8571648519546748</v>
+      </c>
+      <c r="O3">
+        <v>1.491824093798243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.29390324793593</v>
+        <v>1.34240836871831</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5535776112789108</v>
+        <v>0.01851044153806924</v>
       </c>
       <c r="E4">
-        <v>1.076083948043788</v>
+        <v>0.3700707291283791</v>
       </c>
       <c r="F4">
-        <v>5.671840764827351</v>
+        <v>1.715228885238986</v>
       </c>
       <c r="G4">
-        <v>0.0006934002189229669</v>
+        <v>0.0007694412382841436</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1378845689933401</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4253852929891337</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.502886399198971</v>
       </c>
       <c r="L4">
-        <v>2.521516530024101</v>
+        <v>0.6400171532479675</v>
       </c>
       <c r="M4">
-        <v>2.646103860920846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.8961310337971042</v>
+      </c>
+      <c r="O4">
+        <v>1.37018325512274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.237802882162612</v>
+        <v>1.293248167614479</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5244973784204774</v>
+        <v>0.01846586917108084</v>
       </c>
       <c r="E5">
-        <v>1.024919669668321</v>
+        <v>0.3593113896201032</v>
       </c>
       <c r="F5">
-        <v>5.395150954245167</v>
+        <v>1.652985580551388</v>
       </c>
       <c r="G5">
-        <v>0.0006999803407758571</v>
+        <v>0.0007718918728929242</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1482058748922528</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4064382707585921</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.438102344835428</v>
       </c>
       <c r="L5">
-        <v>2.400393381199947</v>
+        <v>0.6125774609207326</v>
       </c>
       <c r="M5">
-        <v>2.522350976942164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.9123898065557476</v>
+      </c>
+      <c r="O5">
+        <v>1.321623284425982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.228518730419864</v>
+        <v>1.285111532880649</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5197409372791526</v>
+        <v>0.01845993429368775</v>
       </c>
       <c r="E6">
-        <v>1.016502647705437</v>
+        <v>0.3575285802385082</v>
       </c>
       <c r="F6">
-        <v>5.349946211713018</v>
+        <v>1.642719096387808</v>
       </c>
       <c r="G6">
-        <v>0.0007010717519898675</v>
+        <v>0.0007723011309056371</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1499511932749238</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4033159756968132</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.427368329424041</v>
       </c>
       <c r="L6">
-        <v>2.380473536588852</v>
+        <v>0.6080333872234291</v>
       </c>
       <c r="M6">
-        <v>2.501965844911211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.9151121383562302</v>
+      </c>
+      <c r="O6">
+        <v>1.313617211082047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.293144468464703</v>
+        <v>1.341743572993778</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5531803718915569</v>
+        <v>0.0185097404525294</v>
       </c>
       <c r="E7">
-        <v>1.075388402274541</v>
+        <v>0.3699253608013109</v>
       </c>
       <c r="F7">
-        <v>5.668057684816972</v>
+        <v>1.714384729928028</v>
       </c>
       <c r="G7">
-        <v>0.0006934890634072154</v>
+        <v>0.0007694741334196114</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1380216158752017</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4251280909867887</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.502011081616146</v>
       </c>
       <c r="L7">
-        <v>2.519869555141682</v>
+        <v>0.6396462467961612</v>
       </c>
       <c r="M7">
-        <v>2.644423421300402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.8963487841583326</v>
+      </c>
+      <c r="O7">
+        <v>1.3695244395456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.584008526892546</v>
+        <v>1.59588436875859</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.713798382511726</v>
+        <v>0.01896160930029822</v>
       </c>
       <c r="E8">
-        <v>1.349740797385394</v>
+        <v>0.4253070922112059</v>
       </c>
       <c r="F8">
-        <v>7.20367182613731</v>
+        <v>2.041749197134621</v>
       </c>
       <c r="G8">
-        <v>0.000659589023819894</v>
+        <v>0.0007573233175492876</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.09043627691658029</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.525807936274667</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.835388543670305</v>
       </c>
       <c r="L8">
-        <v>3.169843973294022</v>
+        <v>0.7811881889333563</v>
       </c>
       <c r="M8">
-        <v>3.302725277956156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.8169186239200181</v>
+      </c>
+      <c r="O8">
+        <v>1.625453649516103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.191167761672034</v>
+        <v>2.113830415687517</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.114989505823189</v>
+        <v>0.02089222183094819</v>
       </c>
       <c r="E9">
-        <v>1.987395151507229</v>
+        <v>0.5378028747902164</v>
       </c>
       <c r="F9">
-        <v>11.06007534861908</v>
+        <v>2.735664411820437</v>
       </c>
       <c r="G9">
-        <v>0.0005875192545973147</v>
+        <v>0.0007344985027747713</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02213337180065134</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.7541929687034994</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.510164836399255</v>
       </c>
       <c r="L9">
-        <v>4.673739755648569</v>
+        <v>1.068912793624946</v>
       </c>
       <c r="M9">
-        <v>4.788249191539379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.6741924431173567</v>
+      </c>
+      <c r="O9">
+        <v>2.170316481701576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.691724428564271</v>
+        <v>2.511074377820421</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.548886989210672</v>
+        <v>0.02318672922140763</v>
       </c>
       <c r="E10">
-        <v>2.622755313269494</v>
+        <v>0.6245180329722189</v>
       </c>
       <c r="F10">
-        <v>15.20816903660693</v>
+        <v>3.290528844052574</v>
       </c>
       <c r="G10">
-        <v>0.0005224602629590693</v>
+        <v>0.0007181606881886727</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.00037991625426681</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9746531784086585</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.026238744476515</v>
       </c>
       <c r="L10">
-        <v>6.140968094832743</v>
+        <v>1.289638924773499</v>
       </c>
       <c r="M10">
-        <v>6.184686794764076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.5782753860059628</v>
+      </c>
+      <c r="O10">
+        <v>2.607813429798952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.952883561344549</v>
+        <v>2.696661569993807</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.841942215549949</v>
+        <v>0.02448630953156083</v>
       </c>
       <c r="E11">
-        <v>3.029288645135708</v>
+        <v>0.6653194677308178</v>
       </c>
       <c r="F11">
-        <v>17.97065550592237</v>
+        <v>3.556299944302509</v>
       </c>
       <c r="G11">
-        <v>0.0004837586644806995</v>
+        <v>0.0007107742112712591</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.00539064401722178</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1.112421834381088</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.267437125692837</v>
       </c>
       <c r="L11">
-        <v>7.04995425849765</v>
+        <v>1.392911010893528</v>
       </c>
       <c r="M11">
-        <v>7.021470904184866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.5368404369780677</v>
+      </c>
+      <c r="O11">
+        <v>2.817849287399525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.063726273629982</v>
+        <v>2.767760667851576</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.989941775607491</v>
+        <v>0.02502190099858126</v>
       </c>
       <c r="E12">
-        <v>3.229267540981809</v>
+        <v>0.6810130131758498</v>
       </c>
       <c r="F12">
-        <v>19.34856112858415</v>
+        <v>3.659217171764453</v>
       </c>
       <c r="G12">
-        <v>0.0004655162910491207</v>
+        <v>0.0007079789904427503</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0122724696592309</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1.179359214373008</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.35989857049131</v>
       </c>
       <c r="L12">
-        <v>7.485407157681351</v>
+        <v>1.432511039574251</v>
       </c>
       <c r="M12">
-        <v>7.41404609918618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.5214915407785821</v>
+      </c>
+      <c r="O12">
+        <v>2.899260948175481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.038990947346349</v>
+        <v>2.752409587256579</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.955303972462531</v>
+        <v>0.02490449891051583</v>
       </c>
       <c r="E13">
-        <v>3.18274744004303</v>
+        <v>0.6776214557896125</v>
       </c>
       <c r="F13">
-        <v>19.02725271016936</v>
+        <v>3.636944635988101</v>
       </c>
       <c r="G13">
-        <v>0.0004697134053910101</v>
+        <v>0.0007085809907573002</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.0104376099506816</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1.1638335860778</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.339931774919506</v>
       </c>
       <c r="L13">
-        <v>7.384886091214042</v>
+        <v>1.423959096939427</v>
       </c>
       <c r="M13">
-        <v>7.323918712468469</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5247815622520369</v>
+      </c>
+      <c r="O13">
+        <v>2.88163891169539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.961660065214744</v>
+        <v>2.702493729156345</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.853030652259122</v>
+        <v>0.02452945914910032</v>
       </c>
       <c r="E14">
-        <v>3.044384350564087</v>
+        <v>0.6666054074785279</v>
       </c>
       <c r="F14">
-        <v>18.07433224723229</v>
+        <v>3.564719166426613</v>
       </c>
       <c r="G14">
-        <v>0.0004823634167087353</v>
+        <v>0.0007105442387532819</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.005816156176384424</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1.117492898205811</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.275020177448368</v>
       </c>
       <c r="L14">
-        <v>7.083119878965732</v>
+        <v>1.396158533533367</v>
       </c>
       <c r="M14">
-        <v>7.051565273610578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.5355706687347466</v>
+      </c>
+      <c r="O14">
+        <v>2.824507642321549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.916314450340394</v>
+        <v>2.672029621814772</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.796761170861089</v>
+        <v>0.02430561640676743</v>
       </c>
       <c r="E15">
-        <v>2.967579249880998</v>
+        <v>0.6598909830868678</v>
       </c>
       <c r="F15">
-        <v>17.54751782708126</v>
+        <v>3.520786812566485</v>
       </c>
       <c r="G15">
-        <v>0.0004894932221649452</v>
+        <v>0.000711746877201372</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.003818835509879381</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.091659989654993</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.23541293253075</v>
       </c>
       <c r="L15">
-        <v>6.913904195331526</v>
+        <v>1.379196741626174</v>
       </c>
       <c r="M15">
-        <v>6.897690178156665</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.5422246141494771</v>
+      </c>
+      <c r="O15">
+        <v>2.789766818055611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.675687699358662</v>
+        <v>2.499053843487616</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.53279455403154</v>
+        <v>0.0231074906791342</v>
       </c>
       <c r="E16">
-        <v>2.599967422937794</v>
+        <v>0.6218827309287605</v>
       </c>
       <c r="F16">
-        <v>15.05536441668966</v>
+        <v>3.273457933841257</v>
       </c>
       <c r="G16">
-        <v>0.0005246947832293499</v>
+        <v>0.0007186439467099237</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.000495662271684516</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9668586839060822</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.010621661455858</v>
       </c>
       <c r="L16">
-        <v>6.089205558948976</v>
+        <v>1.282954138702024</v>
       </c>
       <c r="M16">
-        <v>6.136360099302323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.581029594730226</v>
+      </c>
+      <c r="O16">
+        <v>2.594332634951186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.53890829294113</v>
+        <v>2.394268394511187</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.40244797073106</v>
+        <v>0.02244239130878967</v>
       </c>
       <c r="E17">
-        <v>2.413368956910773</v>
+        <v>0.5989443074507506</v>
       </c>
       <c r="F17">
-        <v>13.81417788927581</v>
+        <v>3.125386437556926</v>
       </c>
       <c r="G17">
-        <v>0.000543259550202791</v>
+        <v>0.0007228836631495376</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003187629967838612</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9027289441739867</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.874499473154231</v>
       </c>
       <c r="L17">
-        <v>5.662612492907954</v>
+        <v>1.224699774177225</v>
       </c>
       <c r="M17">
-        <v>5.735410375521084</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.6054153098784232</v>
+      </c>
+      <c r="O17">
+        <v>2.477454798626866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.462837891167794</v>
+        <v>2.33444972419278</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.334704936685682</v>
+        <v>0.02208345758666397</v>
       </c>
       <c r="E18">
-        <v>2.314879876328064</v>
+        <v>0.585874843140715</v>
       </c>
       <c r="F18">
-        <v>13.16693473913392</v>
+        <v>3.04145294908264</v>
       </c>
       <c r="G18">
-        <v>0.0005532544664146622</v>
+        <v>0.0007253268555665167</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.005920842997183762</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8686559283690158</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.796797470474786</v>
       </c>
       <c r="L18">
-        <v>5.435657346882294</v>
+        <v>1.19145730168691</v>
       </c>
       <c r="M18">
-        <v>5.520187834644361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.6196465184451494</v>
+      </c>
+      <c r="O18">
+        <v>2.411246715021719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.4374496246935</v>
+        <v>2.314270257862631</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.31276718425778</v>
+        <v>0.02196579956597589</v>
       </c>
       <c r="E19">
-        <v>2.282749295888649</v>
+        <v>0.5814697374821165</v>
       </c>
       <c r="F19">
-        <v>12.95705549952066</v>
+        <v>3.013236438841091</v>
       </c>
       <c r="G19">
-        <v>0.0005565452264266564</v>
+        <v>0.0007261550031643177</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.007017899322931287</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8575057289706365</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.770584996552842</v>
       </c>
       <c r="L19">
-        <v>5.361374527944633</v>
+        <v>1.180245012111925</v>
       </c>
       <c r="M19">
-        <v>5.449461704196068</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.6244994799659596</v>
+      </c>
+      <c r="O19">
+        <v>2.388996317880441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.55317862968667</v>
+        <v>2.405375478769088</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.415511008184922</v>
+        <v>0.02251070363939434</v>
       </c>
       <c r="E20">
-        <v>2.43223789856691</v>
+        <v>0.6013729762111168</v>
       </c>
       <c r="F20">
-        <v>13.93882761396316</v>
+        <v>3.141018869402501</v>
       </c>
       <c r="G20">
-        <v>0.0005413603475721076</v>
+        <v>0.0007224318915163708</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002770044521386517</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.9092388494103361</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.88892731162754</v>
       </c>
       <c r="L20">
-        <v>5.705959338797385</v>
+        <v>1.230873187588401</v>
       </c>
       <c r="M20">
-        <v>5.776366837259872</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.6027979984743679</v>
+      </c>
+      <c r="O20">
+        <v>2.489789428473784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.983907181916265</v>
+        <v>2.717131898171601</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.881588452451297</v>
+        <v>0.02463837835255944</v>
       </c>
       <c r="E21">
-        <v>3.083175746733914</v>
+        <v>0.6698340648140402</v>
       </c>
       <c r="F21">
-        <v>18.34102910934462</v>
+        <v>3.585868669864396</v>
       </c>
       <c r="G21">
-        <v>0.0004787916898512271</v>
+        <v>0.0007099675754874715</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.006981956743981166</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1.130510106677228</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.294054000950126</v>
       </c>
       <c r="L21">
-        <v>7.16813149898789</v>
+        <v>1.404310136292878</v>
       </c>
       <c r="M21">
-        <v>7.128559622976582</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.5323921542549117</v>
+      </c>
+      <c r="O21">
+        <v>2.841235014965051</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.405548747674118</v>
+        <v>2.925738324086069</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.64786262654718</v>
+        <v>0.02628634201639812</v>
       </c>
       <c r="E22">
-        <v>4.087345566729425</v>
+        <v>0.7160227891286937</v>
       </c>
       <c r="F22">
-        <v>25.28221951464479</v>
+        <v>3.890075653449031</v>
       </c>
       <c r="G22">
-        <v>0.0003932048552028111</v>
+        <v>0.0007018296106904872</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.06630321117607485</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.461542824718379</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.565502462387954</v>
       </c>
       <c r="L22">
-        <v>9.236586611088768</v>
+        <v>1.520583134721477</v>
       </c>
       <c r="M22">
-        <v>8.932167217611351</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.488383597367525</v>
+      </c>
+      <c r="O22">
+        <v>3.082029577196209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.141839317268534</v>
+        <v>2.813912632193251</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.106704963823319</v>
+        <v>0.02538069896868933</v>
       </c>
       <c r="E23">
-        <v>3.384912465245222</v>
+        <v>0.6912202890119516</v>
       </c>
       <c r="F23">
-        <v>20.42597369256652</v>
+        <v>3.726349154086108</v>
       </c>
       <c r="G23">
-        <v>0.0004516789340744092</v>
+        <v>0.000706174003568036</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01937049412091429</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1.231112878169363</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.419939481901679</v>
       </c>
       <c r="L23">
-        <v>7.818052700339251</v>
+        <v>1.458228285913322</v>
       </c>
       <c r="M23">
-        <v>7.710117745472161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.5116788826127756</v>
+      </c>
+      <c r="O23">
+        <v>2.952387562635792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.546719303195289</v>
+        <v>2.400352654499727</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.409583692846809</v>
+        <v>0.02247974711107403</v>
       </c>
       <c r="E24">
-        <v>2.423680989570585</v>
+        <v>0.6002746105880519</v>
       </c>
       <c r="F24">
-        <v>13.88227486655677</v>
+        <v>3.133947751460283</v>
       </c>
       <c r="G24">
-        <v>0.0005422210014817802</v>
+        <v>0.0007226361193981093</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002955256629474379</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9062873702129224</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.882402767240677</v>
       </c>
       <c r="L24">
-        <v>5.686307435448356</v>
+        <v>1.228081418606337</v>
       </c>
       <c r="M24">
-        <v>5.757804625117586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.6039806279643098</v>
+      </c>
+      <c r="O24">
+        <v>2.484209890847595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.02076819176159</v>
+        <v>1.971157575535017</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.9916283359046076</v>
+        <v>0.02023558969022332</v>
       </c>
       <c r="E25">
-        <v>1.79741151300361</v>
+        <v>0.5067947736901743</v>
       </c>
       <c r="F25">
-        <v>9.87398248464055</v>
+        <v>2.54110763033799</v>
       </c>
       <c r="G25">
-        <v>0.0006081822132615261</v>
+        <v>0.0007405830092968741</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.03701803316035646</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6869329891081932</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.324657174650198</v>
       </c>
       <c r="L25">
-        <v>4.227712260066056</v>
+        <v>0.9896880509698178</v>
       </c>
       <c r="M25">
-        <v>4.353222515918262</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.7113122342162752</v>
+      </c>
+      <c r="O25">
+        <v>2.017270353123678</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.665910458767314</v>
+        <v>0.2149840425391147</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01914705362288416</v>
+        <v>0.01059318304347556</v>
       </c>
       <c r="E2">
-        <v>0.4405224396361689</v>
+        <v>1.442978707145485</v>
       </c>
       <c r="F2">
-        <v>2.133528490642504</v>
+        <v>0.9549404581454013</v>
       </c>
       <c r="G2">
-        <v>0.0007541048172844935</v>
+        <v>0.9021833779603696</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5148257463110752</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1813251582740705</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.926896184369511</v>
+        <v>3.219563759889894</v>
       </c>
       <c r="L2">
-        <v>0.8201236880708791</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7962462132357828</v>
+        <v>0.5610444975312716</v>
       </c>
       <c r="O2">
-        <v>1.697348864514609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.464183817066868</v>
+        <v>0.1871901181444144</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0186825668815267</v>
+        <v>0.0105102460427382</v>
       </c>
       <c r="E3">
-        <v>0.3966483006868486</v>
+        <v>1.235111819916384</v>
       </c>
       <c r="F3">
-        <v>1.870956034229252</v>
+        <v>0.8493863994053328</v>
       </c>
       <c r="G3">
-        <v>0.0007635197813755656</v>
+        <v>0.7973583567707152</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4741728683957973</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1915190740945878</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.66291166202933</v>
+        <v>2.78676227513867</v>
       </c>
       <c r="L3">
-        <v>0.7078942305296607</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8571648519546748</v>
+        <v>0.6028926683434848</v>
       </c>
       <c r="O3">
-        <v>1.491824093798243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.34240836871831</v>
+        <v>0.170109963986846</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01851044153806924</v>
+        <v>0.01046817007015832</v>
       </c>
       <c r="E4">
-        <v>0.3700707291283791</v>
+        <v>1.110453628766848</v>
       </c>
       <c r="F4">
-        <v>1.715228885238986</v>
+        <v>0.786926026357051</v>
       </c>
       <c r="G4">
-        <v>0.0007694412382841436</v>
+        <v>0.7354569436110694</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4505541679518643</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1982493325152497</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.502886399198971</v>
+        <v>2.523476074946331</v>
       </c>
       <c r="L4">
-        <v>0.6400171532479675</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8961310337971042</v>
+        <v>0.629694595249485</v>
       </c>
       <c r="O4">
-        <v>1.37018325512274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.293248167614479</v>
+        <v>0.1631448171939951</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01846586917108084</v>
+        <v>0.01045293165976169</v>
       </c>
       <c r="E5">
-        <v>0.3593113896201032</v>
+        <v>1.060284093884405</v>
       </c>
       <c r="F5">
-        <v>1.652985580551388</v>
+        <v>0.7620036186722388</v>
       </c>
       <c r="G5">
-        <v>0.0007718918728929242</v>
+        <v>0.7107848363942253</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4412369078341243</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.201105933692407</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.438102344835428</v>
+        <v>2.41668735608539</v>
       </c>
       <c r="L5">
-        <v>0.6125774609207326</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9123898065557476</v>
+        <v>0.6408855113855658</v>
       </c>
       <c r="O5">
-        <v>1.321623284425982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.285111532880649</v>
+        <v>0.1619879344633972</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01845993429368775</v>
+        <v>0.01045050827652183</v>
       </c>
       <c r="E6">
-        <v>0.3575285802385082</v>
+        <v>1.051988288781217</v>
       </c>
       <c r="F6">
-        <v>1.642719096387808</v>
+        <v>0.75789565494226</v>
       </c>
       <c r="G6">
-        <v>0.0007723011309056371</v>
+        <v>0.7067196449677766</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.439707529304556</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2015870268564619</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.427368329424041</v>
+        <v>2.398982350692791</v>
       </c>
       <c r="L6">
-        <v>0.6080333872234291</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9151121383562302</v>
+        <v>0.642759732834818</v>
       </c>
       <c r="O6">
-        <v>1.313617211082047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.341743572993778</v>
+        <v>0.1700160506955655</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0185097404525294</v>
+        <v>0.01046795721596006</v>
       </c>
       <c r="E7">
-        <v>0.3699253608013109</v>
+        <v>1.109774622519268</v>
       </c>
       <c r="F7">
-        <v>1.714384729928028</v>
+        <v>0.7865878413787755</v>
       </c>
       <c r="G7">
-        <v>0.0007694741334196114</v>
+        <v>0.7351220499405571</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4504273046897396</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1982874019463701</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.502011081616146</v>
+        <v>2.522033994867371</v>
       </c>
       <c r="L7">
-        <v>0.6396462467961612</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8963487841583326</v>
+        <v>0.6298444430209669</v>
       </c>
       <c r="O7">
-        <v>1.3695244395456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.59588436875859</v>
+        <v>0.2054029746906565</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01896160930029822</v>
+        <v>0.01056254220404718</v>
       </c>
       <c r="E8">
-        <v>0.4253070922112059</v>
+        <v>1.370614323881085</v>
       </c>
       <c r="F8">
-        <v>2.041749197134621</v>
+        <v>0.9180197271257242</v>
       </c>
       <c r="G8">
-        <v>0.0007573233175492876</v>
+        <v>0.8654874453933274</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.5005111716180863</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1847394313668307</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.835388543670305</v>
+        <v>3.069751614457431</v>
       </c>
       <c r="L8">
-        <v>0.7811881889333563</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8169186239200181</v>
+        <v>0.5752380989793107</v>
       </c>
       <c r="O8">
-        <v>1.625453649516103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.113830415687517</v>
+        <v>0.2747422957510253</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02089222183094819</v>
+        <v>0.01083574362271733</v>
       </c>
       <c r="E9">
-        <v>0.5378028747902164</v>
+        <v>1.911754220413044</v>
       </c>
       <c r="F9">
-        <v>2.735664411820437</v>
+        <v>1.197418480737568</v>
       </c>
       <c r="G9">
-        <v>0.0007344985027747713</v>
+        <v>1.143956356096453</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.6108766222341728</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1621283147951065</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.510164836399255</v>
+        <v>4.169116969872675</v>
       </c>
       <c r="L9">
-        <v>1.068912793624946</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6741924431173567</v>
+        <v>0.4773988841176906</v>
       </c>
       <c r="O9">
-        <v>2.170316481701576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.511074377820421</v>
+        <v>0.3257501109221863</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02318672922140763</v>
+        <v>0.01112041642213413</v>
       </c>
       <c r="E10">
-        <v>0.6245180329722189</v>
+        <v>2.337158497022671</v>
       </c>
       <c r="F10">
-        <v>3.290528844052574</v>
+        <v>1.420611578235423</v>
       </c>
       <c r="G10">
-        <v>0.0007181606881886727</v>
+        <v>1.367619504436959</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.7017204305379892</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1482567487479063</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.026238744476515</v>
+        <v>5.001423483325141</v>
       </c>
       <c r="L10">
-        <v>1.289638924773499</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5782753860059628</v>
+        <v>0.4118520557291245</v>
       </c>
       <c r="O10">
-        <v>2.607813429798952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.696661569993807</v>
+        <v>0.3489928050204298</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02448630953156083</v>
+        <v>0.01127712690903593</v>
       </c>
       <c r="E11">
-        <v>0.6653194677308178</v>
+        <v>2.539369692218855</v>
       </c>
       <c r="F11">
-        <v>3.556299944302509</v>
+        <v>1.527258119334917</v>
       </c>
       <c r="G11">
-        <v>0.0007107742112712591</v>
+        <v>1.474849778383287</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7457763851633956</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1426230567606073</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.267437125692837</v>
+        <v>5.387800396953935</v>
       </c>
       <c r="L11">
-        <v>1.392911010893528</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5368404369780677</v>
+        <v>0.3835856135244358</v>
       </c>
       <c r="O11">
-        <v>2.817849287399525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.767760667851576</v>
+        <v>0.3578018912141943</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02502190099858126</v>
+        <v>0.01134134432815515</v>
       </c>
       <c r="E12">
-        <v>0.6810130131758498</v>
+        <v>2.617457913143696</v>
       </c>
       <c r="F12">
-        <v>3.659217171764453</v>
+        <v>1.568495945486177</v>
       </c>
       <c r="G12">
-        <v>0.0007079789904427503</v>
+        <v>1.516373846277162</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.7629111225654981</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1405947185233902</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.35989857049131</v>
+        <v>5.535459363000598</v>
       </c>
       <c r="L12">
-        <v>1.432511039574251</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5214915407785821</v>
+        <v>0.3731218626009611</v>
       </c>
       <c r="O12">
-        <v>2.899260948175481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.752409587256579</v>
+        <v>0.3559043262522721</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02490449891051583</v>
+        <v>0.01132727958781388</v>
       </c>
       <c r="E13">
-        <v>0.6776214557896125</v>
+        <v>2.60056810734693</v>
       </c>
       <c r="F13">
-        <v>3.636944635988101</v>
+        <v>1.559574651555195</v>
       </c>
       <c r="G13">
-        <v>0.0007085809907573002</v>
+        <v>1.507387792921179</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.759199730780125</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1410267544818886</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.339931774919506</v>
+        <v>5.503594439418293</v>
       </c>
       <c r="L13">
-        <v>1.423959096939427</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5247815622520369</v>
+        <v>0.3753644446635707</v>
       </c>
       <c r="O13">
-        <v>2.88163891169539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.702493729156345</v>
+        <v>0.3497173699174425</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02452945914910032</v>
+        <v>0.01128230616608406</v>
       </c>
       <c r="E14">
-        <v>0.6666054074785279</v>
+        <v>2.545762006298617</v>
       </c>
       <c r="F14">
-        <v>3.564719166426613</v>
+        <v>1.530632950950235</v>
       </c>
       <c r="G14">
-        <v>0.0007105442387532819</v>
+        <v>1.478246776828684</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7471766496223609</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1424540321121555</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.275020177448368</v>
+        <v>5.399919961551234</v>
       </c>
       <c r="L14">
-        <v>1.396158533533367</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5355706687347466</v>
+        <v>0.3827198366747093</v>
       </c>
       <c r="O14">
-        <v>2.824507642321549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.672029621814772</v>
+        <v>0.3459287296951317</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02430561640676743</v>
+        <v>0.01125542554476766</v>
       </c>
       <c r="E15">
-        <v>0.6598909830868678</v>
+        <v>2.512397665970937</v>
       </c>
       <c r="F15">
-        <v>3.520786812566485</v>
+        <v>1.51302018910043</v>
       </c>
       <c r="G15">
-        <v>0.000711746877201372</v>
+        <v>1.460520808730138</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7398728839179682</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1433422012626746</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.23541293253075</v>
+        <v>5.336599120233416</v>
       </c>
       <c r="L15">
-        <v>1.379196741626174</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5422246141494771</v>
+        <v>0.3872570409359475</v>
       </c>
       <c r="O15">
-        <v>2.789766818055611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.499053843487616</v>
+        <v>0.3242320955774431</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0231074906791342</v>
+        <v>0.01111080019797228</v>
       </c>
       <c r="E16">
-        <v>0.6218827309287605</v>
+        <v>2.324140102246417</v>
       </c>
       <c r="F16">
-        <v>3.273457933841257</v>
+        <v>1.413754590858574</v>
       </c>
       <c r="G16">
-        <v>0.0007186439467099237</v>
+        <v>1.360732794495419</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6989010811175547</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1486391798411475</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.010621661455858</v>
+        <v>4.976347933026204</v>
       </c>
       <c r="L16">
-        <v>1.282954138702024</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.581029594730226</v>
+        <v>0.4137319629512812</v>
       </c>
       <c r="O16">
-        <v>2.594332634951186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.394268394511187</v>
+        <v>0.3109332489383547</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02244239130878967</v>
+        <v>0.01102966892758417</v>
       </c>
       <c r="E17">
-        <v>0.5989443074507506</v>
+        <v>2.211051651864395</v>
       </c>
       <c r="F17">
-        <v>3.125386437556926</v>
+        <v>1.354247169516313</v>
       </c>
       <c r="G17">
-        <v>0.0007228836631495376</v>
+        <v>1.301007577566509</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6745051069914609</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1520672314075657</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.874499473154231</v>
+        <v>4.757486461684323</v>
       </c>
       <c r="L17">
-        <v>1.224699774177225</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6054153098784232</v>
+        <v>0.4303823031309792</v>
       </c>
       <c r="O17">
-        <v>2.477454798626866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.33444972419278</v>
+        <v>0.3032876447891937</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02208345758666397</v>
+        <v>0.0109854972565202</v>
       </c>
       <c r="E18">
-        <v>0.585874843140715</v>
+        <v>2.146806093807996</v>
       </c>
       <c r="F18">
-        <v>3.04145294908264</v>
+        <v>1.320493603165872</v>
       </c>
       <c r="G18">
-        <v>0.0007253268555665167</v>
+        <v>1.267162735474102</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6607262330914239</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1541021278401882</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.796797470474786</v>
+        <v>4.632317598129646</v>
       </c>
       <c r="L18">
-        <v>1.19145730168691</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6196465184451494</v>
+        <v>0.4401040072538809</v>
       </c>
       <c r="O18">
-        <v>2.411246715021719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.314270257862631</v>
+        <v>0.3006995253509075</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02196579956597589</v>
+        <v>0.01097094357152884</v>
       </c>
       <c r="E19">
-        <v>0.5814697374821165</v>
+        <v>2.125183668664889</v>
       </c>
       <c r="F19">
-        <v>3.013236438841091</v>
+        <v>1.309143226479733</v>
       </c>
       <c r="G19">
-        <v>0.0007261550031643177</v>
+        <v>1.255786958050521</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6561027345983916</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1548017363439431</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.770584996552842</v>
+        <v>4.59005376481781</v>
       </c>
       <c r="L19">
-        <v>1.180245012111925</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6244994799659596</v>
+        <v>0.4434200015672261</v>
       </c>
       <c r="O19">
-        <v>2.388996317880441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.405375478769088</v>
+        <v>0.3123485536622184</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02251070363939434</v>
+        <v>0.01103804116206675</v>
       </c>
       <c r="E20">
-        <v>0.6013729762111168</v>
+        <v>2.223005541015027</v>
       </c>
       <c r="F20">
-        <v>3.141018869402501</v>
+        <v>1.3605320264829</v>
       </c>
       <c r="G20">
-        <v>0.0007224318915163708</v>
+        <v>1.307312020116655</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6770755089202396</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1516957180480727</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.88892731162754</v>
+        <v>4.780709124529039</v>
       </c>
       <c r="L20">
-        <v>1.230873187588401</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6027979984743679</v>
+        <v>0.4285947351072839</v>
       </c>
       <c r="O20">
-        <v>2.489789428473784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.717131898171601</v>
+        <v>0.3515344065351371</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02463837835255944</v>
+        <v>0.01129537495049959</v>
       </c>
       <c r="E21">
-        <v>0.6698340648140402</v>
+        <v>2.561816421090782</v>
       </c>
       <c r="F21">
-        <v>3.585868669864396</v>
+        <v>1.539109658753915</v>
       </c>
       <c r="G21">
-        <v>0.0007099675754874715</v>
+        <v>1.486780153498984</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.7506953489423154</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.142031890063171</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.294054000950126</v>
+        <v>5.430333119048271</v>
       </c>
       <c r="L21">
-        <v>1.404310136292878</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5323921542549117</v>
+        <v>0.38055271629606</v>
       </c>
       <c r="O21">
-        <v>2.841235014965051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.925738324086069</v>
+        <v>0.3771898722773557</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02628634201639812</v>
+        <v>0.01149257701105455</v>
       </c>
       <c r="E22">
-        <v>0.7160227891286937</v>
+        <v>2.792239113149108</v>
       </c>
       <c r="F22">
-        <v>3.890075653449031</v>
+        <v>1.660859912161101</v>
       </c>
       <c r="G22">
-        <v>0.0007018296106904872</v>
+        <v>1.609499492900738</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.80147675319634</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1363323751955594</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.565502462387954</v>
+        <v>5.862880582872208</v>
       </c>
       <c r="L22">
-        <v>1.520583134721477</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.488383597367525</v>
+        <v>0.3505636281720754</v>
       </c>
       <c r="O22">
-        <v>3.082029577196209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.813912632193251</v>
+        <v>0.3634922265036096</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02538069896868933</v>
+        <v>0.01138429641544647</v>
       </c>
       <c r="E23">
-        <v>0.6912202890119516</v>
+        <v>2.668335419098682</v>
       </c>
       <c r="F23">
-        <v>3.726349154086108</v>
+        <v>1.595375126075211</v>
       </c>
       <c r="G23">
-        <v>0.000706174003568036</v>
+        <v>1.543457562021928</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7741080086333056</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1393151339729268</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.419939481901679</v>
+        <v>5.63120619844176</v>
       </c>
       <c r="L23">
-        <v>1.458228285913322</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5116788826127756</v>
+        <v>0.3664342438246697</v>
       </c>
       <c r="O23">
-        <v>2.952387562635792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.400352654499727</v>
+        <v>0.3117086942947793</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02247974711107403</v>
+        <v>0.01103424844589185</v>
       </c>
       <c r="E24">
-        <v>0.6002746105880519</v>
+        <v>2.217598807194122</v>
       </c>
       <c r="F24">
-        <v>3.133947751460283</v>
+        <v>1.357689224620344</v>
       </c>
       <c r="G24">
-        <v>0.0007226361193981093</v>
+        <v>1.30446025878291</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6759126661580979</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1518634802676573</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.882402767240677</v>
+        <v>4.770208127663523</v>
       </c>
       <c r="L24">
-        <v>1.228081418606337</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6039806279643098</v>
+        <v>0.4294024311502698</v>
       </c>
       <c r="O24">
-        <v>2.484209890847595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.971157575535017</v>
+        <v>0.2559804126393601</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02023558969022332</v>
+        <v>0.01074967251318171</v>
       </c>
       <c r="E25">
-        <v>0.5067947736901743</v>
+        <v>1.761265324086409</v>
       </c>
       <c r="F25">
-        <v>2.54110763033799</v>
+        <v>1.11906082453028</v>
       </c>
       <c r="G25">
-        <v>0.0007405830092968741</v>
+        <v>1.065683683826705</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5794928905827987</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1677894996420175</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.324657174650198</v>
+        <v>3.868120278346794</v>
       </c>
       <c r="L25">
-        <v>0.9896880509698178</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7113122342162752</v>
+        <v>0.5028093766497173</v>
       </c>
       <c r="O25">
-        <v>2.017270353123678</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2149840425391147</v>
+        <v>0.07838067010828809</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01059318304347556</v>
+        <v>0.01115829819396552</v>
       </c>
       <c r="E2">
-        <v>1.442978707145485</v>
+        <v>0.4197278238190023</v>
       </c>
       <c r="F2">
-        <v>0.9549404581454013</v>
+        <v>0.774093437100376</v>
       </c>
       <c r="G2">
-        <v>0.9021833779603696</v>
+        <v>0.6308869797421579</v>
       </c>
       <c r="H2">
-        <v>0.5148257463110752</v>
+        <v>0.6806869475433075</v>
       </c>
       <c r="I2">
-        <v>0.1813251582740705</v>
+        <v>0.4094081953048612</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.219563759889894</v>
+        <v>0.9677831610811154</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5610444975312716</v>
+        <v>1.169854919506722</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1871901181444144</v>
+        <v>0.06969514161845325</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0105102460427382</v>
+        <v>0.01105465081561974</v>
       </c>
       <c r="E3">
-        <v>1.235111819916384</v>
+        <v>0.3660050950540494</v>
       </c>
       <c r="F3">
-        <v>0.8493863994053328</v>
+        <v>0.7541389606044646</v>
       </c>
       <c r="G3">
-        <v>0.7973583567707152</v>
+        <v>0.6101860811634907</v>
       </c>
       <c r="H3">
-        <v>0.4741728683957973</v>
+        <v>0.6765671856120861</v>
       </c>
       <c r="I3">
-        <v>0.1915190740945878</v>
+        <v>0.4149996401624207</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.78676227513867</v>
+        <v>0.845085151049517</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6028926683434848</v>
+        <v>1.186028645880063</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.170109963986846</v>
+        <v>0.06436407454299342</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01046817007015832</v>
+        <v>0.01099207512753608</v>
       </c>
       <c r="E4">
-        <v>1.110453628766848</v>
+        <v>0.3331304009831655</v>
       </c>
       <c r="F4">
-        <v>0.786926026357051</v>
+        <v>0.742510040713924</v>
       </c>
       <c r="G4">
-        <v>0.7354569436110694</v>
+        <v>0.5980410425376732</v>
       </c>
       <c r="H4">
-        <v>0.4505541679518643</v>
+        <v>0.6744956608340829</v>
       </c>
       <c r="I4">
-        <v>0.1982493325152497</v>
+        <v>0.4186535000866929</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.523476074946331</v>
+        <v>0.7697442166640656</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.629694595249485</v>
+        <v>1.196451072706473</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1631448171939951</v>
+        <v>0.06219229207425769</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01045293165976169</v>
+        <v>0.010966845912181</v>
       </c>
       <c r="E5">
-        <v>1.060284093884405</v>
+        <v>0.3197593613606529</v>
       </c>
       <c r="F5">
-        <v>0.7620036186722388</v>
+        <v>0.7379269206433037</v>
       </c>
       <c r="G5">
-        <v>0.7107848363942253</v>
+        <v>0.5932328352636773</v>
       </c>
       <c r="H5">
-        <v>0.4412369078341243</v>
+        <v>0.6737662527809789</v>
       </c>
       <c r="I5">
-        <v>0.201105933692407</v>
+        <v>0.4201979122179598</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.41668735608539</v>
+        <v>0.7390403713625062</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6408855113855658</v>
+        <v>1.200821805120041</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1619879344633972</v>
+        <v>0.06183171557375999</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01045050827652183</v>
+        <v>0.0109626730851371</v>
       </c>
       <c r="E6">
-        <v>1.051988288781217</v>
+        <v>0.317540593218979</v>
       </c>
       <c r="F6">
-        <v>0.75789565494226</v>
+        <v>0.7371752768468411</v>
       </c>
       <c r="G6">
-        <v>0.7067196449677766</v>
+        <v>0.5924429175202448</v>
       </c>
       <c r="H6">
-        <v>0.439707529304556</v>
+        <v>0.6736520538913311</v>
       </c>
       <c r="I6">
-        <v>0.2015870268564619</v>
+        <v>0.420457707040832</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.398982350692791</v>
+        <v>0.7339418885841553</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.642759732834818</v>
+        <v>1.201555017761328</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1700160506955655</v>
+        <v>0.06433478214719912</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01046795721596006</v>
+        <v>0.01099173377572171</v>
       </c>
       <c r="E7">
-        <v>1.109774622519268</v>
+        <v>0.3329499735768593</v>
       </c>
       <c r="F7">
-        <v>0.7865878413787755</v>
+        <v>0.742447601754165</v>
       </c>
       <c r="G7">
-        <v>0.7351220499405571</v>
+        <v>0.5979756280528505</v>
       </c>
       <c r="H7">
-        <v>0.4504273046897396</v>
+        <v>0.6744853597047467</v>
       </c>
       <c r="I7">
-        <v>0.1982874019463701</v>
+        <v>0.4186741041978657</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.522033994867371</v>
+        <v>0.7693301422466732</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6298444430209669</v>
+        <v>1.19650951803128</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2054029746906565</v>
+        <v>0.07538562454283237</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01056254220404718</v>
+        <v>0.0111223414932784</v>
       </c>
       <c r="E8">
-        <v>1.370614323881085</v>
+        <v>0.4011797161705886</v>
       </c>
       <c r="F8">
-        <v>0.9180197271257242</v>
+        <v>0.7670832032334971</v>
       </c>
       <c r="G8">
-        <v>0.8654874453933274</v>
+        <v>0.6236312420156906</v>
       </c>
       <c r="H8">
-        <v>0.5005111716180863</v>
+        <v>0.6791711335311845</v>
       </c>
       <c r="I8">
-        <v>0.1847394313668307</v>
+        <v>0.4112902857451068</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.069751614457431</v>
+        <v>0.9254771453293245</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5752380989793107</v>
+        <v>1.175329491342513</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2747422957510253</v>
+        <v>0.0970636411496173</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01083574362271733</v>
+        <v>0.01138680115314017</v>
       </c>
       <c r="E9">
-        <v>1.911754220413044</v>
+        <v>0.5359720803851928</v>
       </c>
       <c r="F9">
-        <v>1.197418480737568</v>
+        <v>0.8203851613439639</v>
       </c>
       <c r="G9">
-        <v>1.143956356096453</v>
+        <v>0.6784847933926414</v>
       </c>
       <c r="H9">
-        <v>0.6108766222341728</v>
+        <v>0.6920146808389802</v>
       </c>
       <c r="I9">
-        <v>0.1621283147951065</v>
+        <v>0.3985642423974021</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.169116969872675</v>
+        <v>1.231703733799122</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4773988841176906</v>
+        <v>1.137702168370005</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3257501109221863</v>
+        <v>0.1129863452014916</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01112041642213413</v>
+        <v>0.01158609776535258</v>
       </c>
       <c r="E10">
-        <v>2.337158497022671</v>
+        <v>0.6357734190404898</v>
       </c>
       <c r="F10">
-        <v>1.420611578235423</v>
+        <v>0.8626593198027592</v>
       </c>
       <c r="G10">
-        <v>1.367619504436959</v>
+        <v>0.7216390780214681</v>
       </c>
       <c r="H10">
-        <v>0.7017204305379892</v>
+        <v>0.7037096497254538</v>
       </c>
       <c r="I10">
-        <v>0.1482567487479063</v>
+        <v>0.3902867102690024</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.001423483325141</v>
+        <v>1.456799196587042</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4118520557291245</v>
+        <v>1.112445342014261</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3489928050204298</v>
+        <v>0.1202273777192033</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01127712690903593</v>
+        <v>0.01167784171142472</v>
       </c>
       <c r="E11">
-        <v>2.539369692218855</v>
+        <v>0.6813788983944846</v>
       </c>
       <c r="F11">
-        <v>1.527258119334917</v>
+        <v>0.8825825391413247</v>
       </c>
       <c r="G11">
-        <v>1.474849778383287</v>
+        <v>0.7419092097774751</v>
       </c>
       <c r="H11">
-        <v>0.7457763851633956</v>
+        <v>0.7095273497426717</v>
       </c>
       <c r="I11">
-        <v>0.1426230567606073</v>
+        <v>0.3867545862687116</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.387800396953935</v>
+        <v>1.559247592317831</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3835856135244358</v>
+        <v>1.101475301068469</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3578018912141943</v>
+        <v>0.1229688618867755</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01134134432815515</v>
+        <v>0.01171273810550844</v>
       </c>
       <c r="E12">
-        <v>2.617457913143696</v>
+        <v>0.6986808309565049</v>
       </c>
       <c r="F12">
-        <v>1.568495945486177</v>
+        <v>0.8902276992125735</v>
       </c>
       <c r="G12">
-        <v>1.516373846277162</v>
+        <v>0.7496782937488717</v>
       </c>
       <c r="H12">
-        <v>0.7629111225654981</v>
+        <v>0.7118024437838244</v>
       </c>
       <c r="I12">
-        <v>0.1405947185233902</v>
+        <v>0.3854506886006401</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.535459363000598</v>
+        <v>1.598050889406409</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3731218626009611</v>
+        <v>1.097396084045686</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3559043262522721</v>
+        <v>0.1223784614525982</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01132727958781388</v>
+        <v>0.01170521565729388</v>
       </c>
       <c r="E13">
-        <v>2.60056810734693</v>
+        <v>0.6949530795721159</v>
       </c>
       <c r="F13">
-        <v>1.559574651555195</v>
+        <v>0.8885766824193269</v>
       </c>
       <c r="G13">
-        <v>1.507387792921179</v>
+        <v>0.7480009149234377</v>
       </c>
       <c r="H13">
-        <v>0.759199730780125</v>
+        <v>0.7113092487163044</v>
       </c>
       <c r="I13">
-        <v>0.1410267544818886</v>
+        <v>0.385730008767478</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.503594439418293</v>
+        <v>1.58969352026412</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3753644446635707</v>
+        <v>1.098271281875425</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3497173699174425</v>
+        <v>0.1204529332421771</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01128230616608406</v>
+        <v>0.01168070955637646</v>
       </c>
       <c r="E14">
-        <v>2.545762006298617</v>
+        <v>0.6828016799019281</v>
       </c>
       <c r="F14">
-        <v>1.530632950950235</v>
+        <v>0.8832094872128948</v>
       </c>
       <c r="G14">
-        <v>1.478246776828684</v>
+        <v>0.7425465009384027</v>
       </c>
       <c r="H14">
-        <v>0.7471766496223609</v>
+        <v>0.7097130760561186</v>
       </c>
       <c r="I14">
-        <v>0.1424540321121555</v>
+        <v>0.3866466391279442</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.399919961551234</v>
+        <v>1.562439790888732</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3827198366747093</v>
+        <v>1.101138199123556</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3459287296951317</v>
+        <v>0.1192734154028159</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01125542554476766</v>
+        <v>0.0116657190260625</v>
       </c>
       <c r="E15">
-        <v>2.512397665970937</v>
+        <v>0.6753628584205416</v>
       </c>
       <c r="F15">
-        <v>1.51302018910043</v>
+        <v>0.8799350678424389</v>
       </c>
       <c r="G15">
-        <v>1.460520808730138</v>
+        <v>0.7392176953280227</v>
       </c>
       <c r="H15">
-        <v>0.7398728839179682</v>
+        <v>0.7087447732544376</v>
       </c>
       <c r="I15">
-        <v>0.1433422012626746</v>
+        <v>0.3872124852252554</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.336599120233416</v>
+        <v>1.545747205400517</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3872570409359475</v>
+        <v>1.102904029094316</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3242320955774431</v>
+        <v>0.1125130628157223</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01111080019797228</v>
+        <v>0.01158012379554307</v>
       </c>
       <c r="E16">
-        <v>2.324140102246417</v>
+        <v>0.6327973471332484</v>
       </c>
       <c r="F16">
-        <v>1.413754590858574</v>
+        <v>0.8613713181524503</v>
       </c>
       <c r="G16">
-        <v>1.360732794495419</v>
+        <v>0.7203273498212468</v>
       </c>
       <c r="H16">
-        <v>0.6989010811175547</v>
+        <v>0.7033395051656157</v>
       </c>
       <c r="I16">
-        <v>0.1486391798411475</v>
+        <v>0.3905222459113773</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.976347933026204</v>
+        <v>1.450105064993863</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4137319629512812</v>
+        <v>1.113172729627004</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3109332489383547</v>
+        <v>0.1083650710653075</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01102966892758417</v>
+        <v>0.01152789054872727</v>
       </c>
       <c r="E17">
-        <v>2.211051651864395</v>
+        <v>0.6067392166903716</v>
       </c>
       <c r="F17">
-        <v>1.354247169516313</v>
+        <v>0.8501611943803198</v>
       </c>
       <c r="G17">
-        <v>1.301007577566509</v>
+        <v>0.7089033500712105</v>
       </c>
       <c r="H17">
-        <v>0.6745051069914609</v>
+        <v>0.7001513511777659</v>
       </c>
       <c r="I17">
-        <v>0.1520672314075657</v>
+        <v>0.3926125067054862</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.757486461684323</v>
+        <v>1.391445512564246</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4303823031309792</v>
+        <v>1.119605426006656</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3032876447891937</v>
+        <v>0.1059790532400058</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0109854972565202</v>
+        <v>0.01149794931009396</v>
       </c>
       <c r="E18">
-        <v>2.146806093807996</v>
+        <v>0.5917704401600616</v>
       </c>
       <c r="F18">
-        <v>1.320493603165872</v>
+        <v>0.8437785424749507</v>
       </c>
       <c r="G18">
-        <v>1.267162735474102</v>
+        <v>0.7023926356823722</v>
       </c>
       <c r="H18">
-        <v>0.6607262330914239</v>
+        <v>0.6983644152891202</v>
       </c>
       <c r="I18">
-        <v>0.1541021278401882</v>
+        <v>0.3938367300199221</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.632317598129646</v>
+        <v>1.357710864594935</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4401040072538809</v>
+        <v>1.123354219968475</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3006995253509075</v>
+        <v>0.1051711601778038</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01097094357152884</v>
+        <v>0.01148782926152947</v>
       </c>
       <c r="E19">
-        <v>2.125183668664889</v>
+        <v>0.5867054836943879</v>
       </c>
       <c r="F19">
-        <v>1.309143226479733</v>
+        <v>0.8416286367291832</v>
       </c>
       <c r="G19">
-        <v>1.255786958050521</v>
+        <v>0.7001984960170944</v>
       </c>
       <c r="H19">
-        <v>0.6561027345983916</v>
+        <v>0.6977674132540699</v>
       </c>
       <c r="I19">
-        <v>0.1548017363439431</v>
+        <v>0.3942550002254279</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.59005376481781</v>
+        <v>1.34628968467365</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4434200015672261</v>
+        <v>1.124631885627169</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3123485536622184</v>
+        <v>0.1088066543617288</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01103804116206675</v>
+        <v>0.01153344032448445</v>
       </c>
       <c r="E20">
-        <v>2.223005541015027</v>
+        <v>0.6095111462950626</v>
       </c>
       <c r="F20">
-        <v>1.3605320264829</v>
+        <v>0.8513477842244015</v>
       </c>
       <c r="G20">
-        <v>1.307312020116655</v>
+        <v>0.7101132279273656</v>
       </c>
       <c r="H20">
-        <v>0.6770755089202396</v>
+        <v>0.7004858877733966</v>
       </c>
       <c r="I20">
-        <v>0.1516957180480727</v>
+        <v>0.3923877214445213</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.780709124529039</v>
+        <v>1.397689421179905</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4285947351072839</v>
+        <v>1.118915594430169</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3515344065351371</v>
+        <v>0.1210185238073649</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01129537495049959</v>
+        <v>0.0116879033899977</v>
       </c>
       <c r="E21">
-        <v>2.561816421090782</v>
+        <v>0.6863699477223122</v>
       </c>
       <c r="F21">
-        <v>1.539109658753915</v>
+        <v>0.8847832216646481</v>
       </c>
       <c r="G21">
-        <v>1.486780153498984</v>
+        <v>0.7441460537494322</v>
       </c>
       <c r="H21">
-        <v>0.7506953489423154</v>
+        <v>0.7101799509980538</v>
       </c>
       <c r="I21">
-        <v>0.142031890063171</v>
+        <v>0.3863764888975219</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.430333119048271</v>
+        <v>1.570444638681522</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.38055271629606</v>
+        <v>1.100294081599865</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3771898722773557</v>
+        <v>0.1289964559959316</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01149257701105455</v>
+        <v>0.01178975711377461</v>
       </c>
       <c r="E22">
-        <v>2.792239113149108</v>
+        <v>0.7367901127820176</v>
       </c>
       <c r="F22">
-        <v>1.660859912161101</v>
+        <v>0.9072225052935892</v>
       </c>
       <c r="G22">
-        <v>1.609499492900738</v>
+        <v>0.7669324881057378</v>
       </c>
       <c r="H22">
-        <v>0.80147675319634</v>
+        <v>0.7169358255277984</v>
       </c>
       <c r="I22">
-        <v>0.1363323751955594</v>
+        <v>0.3826439256791332</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.862880582872208</v>
+        <v>1.683399066395509</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3505636281720754</v>
+        <v>1.088560517839666</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3634922265036096</v>
+        <v>0.1247388478524982</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01138429641544647</v>
+        <v>0.01173531334669065</v>
       </c>
       <c r="E23">
-        <v>2.668335419098682</v>
+        <v>0.7098618061571216</v>
       </c>
       <c r="F23">
-        <v>1.595375126075211</v>
+        <v>0.8951921366799809</v>
       </c>
       <c r="G23">
-        <v>1.543457562021928</v>
+        <v>0.754720717683</v>
       </c>
       <c r="H23">
-        <v>0.7741080086333056</v>
+        <v>0.7132914676804774</v>
       </c>
       <c r="I23">
-        <v>0.1393151339729268</v>
+        <v>0.3846180918368649</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.63120619844176</v>
+        <v>1.623108372960587</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3664342438246697</v>
+        <v>1.094782916065992</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3117086942947793</v>
+        <v>0.1086070185311883</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01103424844589185</v>
+        <v>0.01153093099518898</v>
       </c>
       <c r="E24">
-        <v>2.217598807194122</v>
+        <v>0.6082579185514021</v>
       </c>
       <c r="F24">
-        <v>1.357689224620344</v>
+        <v>0.8508111332970714</v>
       </c>
       <c r="G24">
-        <v>1.30446025878291</v>
+        <v>0.7095660644030772</v>
       </c>
       <c r="H24">
-        <v>0.6759126661580979</v>
+        <v>0.7003345005998938</v>
       </c>
       <c r="I24">
-        <v>0.1518634802676573</v>
+        <v>0.3924892767672823</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.770208127663523</v>
+        <v>1.394866582849886</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4294024311502698</v>
+        <v>1.119227309834435</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2559804126393601</v>
+        <v>0.09119927091094837</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01074967251318171</v>
+        <v>0.01131437575318373</v>
       </c>
       <c r="E25">
-        <v>1.761265324086409</v>
+        <v>0.4993839866810816</v>
       </c>
       <c r="F25">
-        <v>1.11906082453028</v>
+        <v>0.8054239697196977</v>
       </c>
       <c r="G25">
-        <v>1.065683683826705</v>
+        <v>0.6631504762681004</v>
       </c>
       <c r="H25">
-        <v>0.5794928905827987</v>
+        <v>0.6881457377076856</v>
       </c>
       <c r="I25">
-        <v>0.1677894996420175</v>
+        <v>0.4018189057099235</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.868120278346794</v>
+        <v>1.1488489659979</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5028093766497173</v>
+        <v>1.147462484397048</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07838067010828809</v>
+        <v>0.2149840425390153</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01115829819396552</v>
+        <v>0.01059318304347734</v>
       </c>
       <c r="E2">
-        <v>0.4197278238190023</v>
+        <v>1.442978707145485</v>
       </c>
       <c r="F2">
-        <v>0.774093437100376</v>
+        <v>0.9549404581453587</v>
       </c>
       <c r="G2">
-        <v>0.6308869797421579</v>
+        <v>0.9021833779602986</v>
       </c>
       <c r="H2">
-        <v>0.6806869475433075</v>
+        <v>0.5148257463110752</v>
       </c>
       <c r="I2">
-        <v>0.4094081953048612</v>
+        <v>0.1813251582740705</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9677831610811154</v>
+        <v>3.219563759889894</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.169854919506722</v>
+        <v>0.5610444975312698</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06969514161845325</v>
+        <v>0.1871901181444287</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01105465081561974</v>
+        <v>0.01051024604278439</v>
       </c>
       <c r="E3">
-        <v>0.3660050950540494</v>
+        <v>1.235111819916398</v>
       </c>
       <c r="F3">
-        <v>0.7541389606044646</v>
+        <v>0.8493863994053186</v>
       </c>
       <c r="G3">
-        <v>0.6101860811634907</v>
+        <v>0.797358356770701</v>
       </c>
       <c r="H3">
-        <v>0.6765671856120861</v>
+        <v>0.4741728683957831</v>
       </c>
       <c r="I3">
-        <v>0.4149996401624207</v>
+        <v>0.1915190740945896</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.845085151049517</v>
+        <v>2.78676227513867</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.186028645880063</v>
+        <v>0.6028926683434737</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06436407454299342</v>
+        <v>0.1701099639867181</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01099207512753608</v>
+        <v>0.01046817007022405</v>
       </c>
       <c r="E4">
-        <v>0.3331304009831655</v>
+        <v>1.11045362876682</v>
       </c>
       <c r="F4">
-        <v>0.742510040713924</v>
+        <v>0.786926026357051</v>
       </c>
       <c r="G4">
-        <v>0.5980410425376732</v>
+        <v>0.7354569436110552</v>
       </c>
       <c r="H4">
-        <v>0.6744956608340829</v>
+        <v>0.4505541679517506</v>
       </c>
       <c r="I4">
-        <v>0.4186535000866929</v>
+        <v>0.1982493325152674</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7697442166640656</v>
+        <v>2.523476074946245</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.196451072706473</v>
+        <v>0.6296945952495476</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06219229207425769</v>
+        <v>0.1631448171938672</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.010966845912181</v>
+        <v>0.0104529316598807</v>
       </c>
       <c r="E5">
-        <v>0.3197593613606529</v>
+        <v>1.060284093884377</v>
       </c>
       <c r="F5">
-        <v>0.7379269206433037</v>
+        <v>0.7620036186722388</v>
       </c>
       <c r="G5">
-        <v>0.5932328352636773</v>
+        <v>0.7107848363941258</v>
       </c>
       <c r="H5">
-        <v>0.6737662527809789</v>
+        <v>0.4412369078342238</v>
       </c>
       <c r="I5">
-        <v>0.4201979122179598</v>
+        <v>0.201105933692407</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7390403713625062</v>
+        <v>2.416687356085362</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.200821805120041</v>
+        <v>0.6408855113855658</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06183171557375999</v>
+        <v>0.1619879344634825</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0109626730851371</v>
+        <v>0.01045050827640459</v>
       </c>
       <c r="E6">
-        <v>0.317540593218979</v>
+        <v>1.051988288781217</v>
       </c>
       <c r="F6">
-        <v>0.7371752768468411</v>
+        <v>0.75789565494226</v>
       </c>
       <c r="G6">
-        <v>0.5924429175202448</v>
+        <v>0.7067196449677908</v>
       </c>
       <c r="H6">
-        <v>0.6736520538913311</v>
+        <v>0.4397075293046697</v>
       </c>
       <c r="I6">
-        <v>0.420457707040832</v>
+        <v>0.2015870268564477</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7339418885841553</v>
+        <v>2.398982350692847</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.201555017761328</v>
+        <v>0.6427597328348242</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06433478214719912</v>
+        <v>0.1700160506955655</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01099173377572171</v>
+        <v>0.01046795721603111</v>
       </c>
       <c r="E7">
-        <v>0.3329499735768593</v>
+        <v>1.109774622519296</v>
       </c>
       <c r="F7">
-        <v>0.742447601754165</v>
+        <v>0.7865878413787755</v>
       </c>
       <c r="G7">
-        <v>0.5979756280528505</v>
+        <v>0.7351220499405855</v>
       </c>
       <c r="H7">
-        <v>0.6744853597047467</v>
+        <v>0.4504273046898533</v>
       </c>
       <c r="I7">
-        <v>0.4186741041978657</v>
+        <v>0.1982874019463665</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7693301422466732</v>
+        <v>2.522033994867229</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.19650951803128</v>
+        <v>0.6298444430209722</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07538562454283237</v>
+        <v>0.2054029746906565</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0111223414932784</v>
+        <v>0.01056254220392994</v>
       </c>
       <c r="E8">
-        <v>0.4011797161705886</v>
+        <v>1.370614323881057</v>
       </c>
       <c r="F8">
-        <v>0.7670832032334971</v>
+        <v>0.9180197271257242</v>
       </c>
       <c r="G8">
-        <v>0.6236312420156906</v>
+        <v>0.8654874453933274</v>
       </c>
       <c r="H8">
-        <v>0.6791711335311845</v>
+        <v>0.5005111716180863</v>
       </c>
       <c r="I8">
-        <v>0.4112902857451068</v>
+        <v>0.1847394313668467</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9254771453293245</v>
+        <v>3.069751614457346</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.175329491342513</v>
+        <v>0.5752380989792969</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0970636411496173</v>
+        <v>0.274742295751139</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01138680115314017</v>
+        <v>0.01083574362263917</v>
       </c>
       <c r="E9">
-        <v>0.5359720803851928</v>
+        <v>1.911754220413073</v>
       </c>
       <c r="F9">
-        <v>0.8203851613439639</v>
+        <v>1.197418480737568</v>
       </c>
       <c r="G9">
-        <v>0.6784847933926414</v>
+        <v>1.143956356096425</v>
       </c>
       <c r="H9">
-        <v>0.6920146808389802</v>
+        <v>0.6108766222341728</v>
       </c>
       <c r="I9">
-        <v>0.3985642423974021</v>
+        <v>0.1621283147951189</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.231703733799122</v>
+        <v>4.169116969872732</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.137702168370005</v>
+        <v>0.4773988841176857</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1129863452014916</v>
+        <v>0.3257501109222005</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01158609776535258</v>
+        <v>0.01112041642194583</v>
       </c>
       <c r="E10">
-        <v>0.6357734190404898</v>
+        <v>2.337158497022699</v>
       </c>
       <c r="F10">
-        <v>0.8626593198027592</v>
+        <v>1.420611578235437</v>
       </c>
       <c r="G10">
-        <v>0.7216390780214681</v>
+        <v>1.367619504436959</v>
       </c>
       <c r="H10">
-        <v>0.7037096497254538</v>
+        <v>0.7017204305378755</v>
       </c>
       <c r="I10">
-        <v>0.3902867102690024</v>
+        <v>0.1482567487479045</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.456799196587042</v>
+        <v>5.001423483325198</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.112445342014261</v>
+        <v>0.4118520557291259</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1202273777192033</v>
+        <v>0.3489928050203162</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01167784171142472</v>
+        <v>0.01127712690892224</v>
       </c>
       <c r="E11">
-        <v>0.6813788983944846</v>
+        <v>2.539369692218841</v>
       </c>
       <c r="F11">
-        <v>0.8825825391413247</v>
+        <v>1.527258119334931</v>
       </c>
       <c r="G11">
-        <v>0.7419092097774751</v>
+        <v>1.474849778383316</v>
       </c>
       <c r="H11">
-        <v>0.7095273497426717</v>
+        <v>0.7457763851635377</v>
       </c>
       <c r="I11">
-        <v>0.3867545862687116</v>
+        <v>0.1426230567606073</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.559247592317831</v>
+        <v>5.387800396954106</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.101475301068469</v>
+        <v>0.3835856135243678</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1229688618867755</v>
+        <v>0.3578018912140806</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01171273810550844</v>
+        <v>0.0113413443281587</v>
       </c>
       <c r="E12">
-        <v>0.6986808309565049</v>
+        <v>2.617457913143681</v>
       </c>
       <c r="F12">
-        <v>0.8902276992125735</v>
+        <v>1.568495945486163</v>
       </c>
       <c r="G12">
-        <v>0.7496782937488717</v>
+        <v>1.516373846277105</v>
       </c>
       <c r="H12">
-        <v>0.7118024437838244</v>
+        <v>0.7629111225654981</v>
       </c>
       <c r="I12">
-        <v>0.3854506886006401</v>
+        <v>0.1405947185234062</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.598050889406409</v>
+        <v>5.535459363000598</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.097396084045686</v>
+        <v>0.3731218626009656</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1223784614525982</v>
+        <v>0.3559043262523574</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01170521565729388</v>
+        <v>0.01132727958789204</v>
       </c>
       <c r="E13">
-        <v>0.6949530795721159</v>
+        <v>2.60056810734693</v>
       </c>
       <c r="F13">
-        <v>0.8885766824193269</v>
+        <v>1.559574651555209</v>
       </c>
       <c r="G13">
-        <v>0.7480009149234377</v>
+        <v>1.507387792921151</v>
       </c>
       <c r="H13">
-        <v>0.7113092487163044</v>
+        <v>0.7591997307802671</v>
       </c>
       <c r="I13">
-        <v>0.385730008767478</v>
+        <v>0.1410267544818886</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.58969352026412</v>
+        <v>5.503594439418293</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.098271281875425</v>
+        <v>0.3753644446635662</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1204529332421771</v>
+        <v>0.3497173699173288</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01168070955637646</v>
+        <v>0.01128230616619064</v>
       </c>
       <c r="E14">
-        <v>0.6828016799019281</v>
+        <v>2.545762006298602</v>
       </c>
       <c r="F14">
-        <v>0.8832094872128948</v>
+        <v>1.530632950950235</v>
       </c>
       <c r="G14">
-        <v>0.7425465009384027</v>
+        <v>1.47824677682874</v>
       </c>
       <c r="H14">
-        <v>0.7097130760561186</v>
+        <v>0.7471766496224461</v>
       </c>
       <c r="I14">
-        <v>0.3866466391279442</v>
+        <v>0.1424540321121555</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.562439790888732</v>
+        <v>5.399919961551291</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.101138199123556</v>
+        <v>0.3827198366746511</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1192734154028159</v>
+        <v>0.3459287296951601</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0116657190260625</v>
+        <v>0.01125542554466108</v>
       </c>
       <c r="E15">
-        <v>0.6753628584205416</v>
+        <v>2.512397665970909</v>
       </c>
       <c r="F15">
-        <v>0.8799350678424389</v>
+        <v>1.51302018910043</v>
       </c>
       <c r="G15">
-        <v>0.7392176953280227</v>
+        <v>1.460520808730053</v>
       </c>
       <c r="H15">
-        <v>0.7087447732544376</v>
+        <v>0.7398728839179682</v>
       </c>
       <c r="I15">
-        <v>0.3872124852252554</v>
+        <v>0.1433422012626728</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.545747205400517</v>
+        <v>5.336599120233529</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.102904029094316</v>
+        <v>0.387257040935947</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1125130628157223</v>
+        <v>0.3242320955774289</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01158012379554307</v>
+        <v>0.0111108001981286</v>
       </c>
       <c r="E16">
-        <v>0.6327973471332484</v>
+        <v>2.32414010224646</v>
       </c>
       <c r="F16">
-        <v>0.8613713181524503</v>
+        <v>1.413754590858574</v>
       </c>
       <c r="G16">
-        <v>0.7203273498212468</v>
+        <v>1.360732794495419</v>
       </c>
       <c r="H16">
-        <v>0.7033395051656157</v>
+        <v>0.6989010811175547</v>
       </c>
       <c r="I16">
-        <v>0.3905222459113773</v>
+        <v>0.1486391798411439</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.450105064993863</v>
+        <v>4.976347933026432</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.113172729627004</v>
+        <v>0.4137319629512666</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1083650710653075</v>
+        <v>0.3109332489383263</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01152789054872727</v>
+        <v>0.0110296689276943</v>
       </c>
       <c r="E17">
-        <v>0.6067392166903716</v>
+        <v>2.211051651864395</v>
       </c>
       <c r="F17">
-        <v>0.8501611943803198</v>
+        <v>1.354247169516299</v>
       </c>
       <c r="G17">
-        <v>0.7089033500712105</v>
+        <v>1.301007577566594</v>
       </c>
       <c r="H17">
-        <v>0.7001513511777659</v>
+        <v>0.6745051069914609</v>
       </c>
       <c r="I17">
-        <v>0.3926125067054862</v>
+        <v>0.1520672314075657</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.391445512564246</v>
+        <v>4.75748646168438</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.119605426006656</v>
+        <v>0.4303823031310321</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1059790532400058</v>
+        <v>0.3032876447891084</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01149794931009396</v>
+        <v>0.0109854972565202</v>
       </c>
       <c r="E18">
-        <v>0.5917704401600616</v>
+        <v>2.14680609380801</v>
       </c>
       <c r="F18">
-        <v>0.8437785424749507</v>
+        <v>1.320493603165886</v>
       </c>
       <c r="G18">
-        <v>0.7023926356823722</v>
+        <v>1.267162735474187</v>
       </c>
       <c r="H18">
-        <v>0.6983644152891202</v>
+        <v>0.6607262330914523</v>
       </c>
       <c r="I18">
-        <v>0.3938367300199221</v>
+        <v>0.1541021278401846</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.357710864594935</v>
+        <v>4.632317598129646</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.123354219968475</v>
+        <v>0.4401040072538129</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1051711601778038</v>
+        <v>0.3006995253508933</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01148782926152947</v>
+        <v>0.01097094357160699</v>
       </c>
       <c r="E19">
-        <v>0.5867054836943879</v>
+        <v>2.125183668664874</v>
       </c>
       <c r="F19">
-        <v>0.8416286367291832</v>
+        <v>1.309143226479719</v>
       </c>
       <c r="G19">
-        <v>0.7001984960170944</v>
+        <v>1.255786958050493</v>
       </c>
       <c r="H19">
-        <v>0.6977674132540699</v>
+        <v>0.6561027345985053</v>
       </c>
       <c r="I19">
-        <v>0.3942550002254279</v>
+        <v>0.1548017363439449</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.34628968467365</v>
+        <v>4.59005376481781</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.124631885627169</v>
+        <v>0.4434200015672238</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1088066543617288</v>
+        <v>0.3123485536623321</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01153344032448445</v>
+        <v>0.01103804116209872</v>
       </c>
       <c r="E20">
-        <v>0.6095111462950626</v>
+        <v>2.223005541015027</v>
       </c>
       <c r="F20">
-        <v>0.8513477842244015</v>
+        <v>1.360532026482915</v>
       </c>
       <c r="G20">
-        <v>0.7101132279273656</v>
+        <v>1.307312020116598</v>
       </c>
       <c r="H20">
-        <v>0.7004858877733966</v>
+        <v>0.6770755089202396</v>
       </c>
       <c r="I20">
-        <v>0.3923877214445213</v>
+        <v>0.1516957180480585</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.397689421179905</v>
+        <v>4.780709124528983</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.118915594430169</v>
+        <v>0.4285947351072221</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1210185238073649</v>
+        <v>0.3515344065352366</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0116879033899977</v>
+        <v>0.01129537495030419</v>
       </c>
       <c r="E21">
-        <v>0.6863699477223122</v>
+        <v>2.561816421090768</v>
       </c>
       <c r="F21">
-        <v>0.8847832216646481</v>
+        <v>1.539109658753901</v>
       </c>
       <c r="G21">
-        <v>0.7441460537494322</v>
+        <v>1.486780153498984</v>
       </c>
       <c r="H21">
-        <v>0.7101799509980538</v>
+        <v>0.7506953489424291</v>
       </c>
       <c r="I21">
-        <v>0.3863764888975219</v>
+        <v>0.1420318900631745</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.570444638681522</v>
+        <v>5.430333119048271</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.100294081599865</v>
+        <v>0.3805527162960081</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1289964559959316</v>
+        <v>0.3771898722774694</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01178975711377461</v>
+        <v>0.01149257701096573</v>
       </c>
       <c r="E22">
-        <v>0.7367901127820176</v>
+        <v>2.79223911314908</v>
       </c>
       <c r="F22">
-        <v>0.9072225052935892</v>
+        <v>1.660859912161087</v>
       </c>
       <c r="G22">
-        <v>0.7669324881057378</v>
+        <v>1.609499492900795</v>
       </c>
       <c r="H22">
-        <v>0.7169358255277984</v>
+        <v>0.80147675319634</v>
       </c>
       <c r="I22">
-        <v>0.3826439256791332</v>
+        <v>0.136332375195563</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.683399066395509</v>
+        <v>5.862880582872151</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.088560517839666</v>
+        <v>0.3505636281720785</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1247388478524982</v>
+        <v>0.3634922265036096</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01173531334669065</v>
+        <v>0.01138429641553174</v>
       </c>
       <c r="E23">
-        <v>0.7098618061571216</v>
+        <v>2.668335419098668</v>
       </c>
       <c r="F23">
-        <v>0.8951921366799809</v>
+        <v>1.595375126075211</v>
       </c>
       <c r="G23">
-        <v>0.754720717683</v>
+        <v>1.543457562021985</v>
       </c>
       <c r="H23">
-        <v>0.7132914676804774</v>
+        <v>0.7741080086333056</v>
       </c>
       <c r="I23">
-        <v>0.3846180918368649</v>
+        <v>0.1393151339729286</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.623108372960587</v>
+        <v>5.63120619844176</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.094782916065992</v>
+        <v>0.3664342438246675</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1086070185311883</v>
+        <v>0.3117086942947509</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01153093099518898</v>
+        <v>0.0110342484458883</v>
       </c>
       <c r="E24">
-        <v>0.6082579185514021</v>
+        <v>2.21759880719415</v>
       </c>
       <c r="F24">
-        <v>0.8508111332970714</v>
+        <v>1.357689224620358</v>
       </c>
       <c r="G24">
-        <v>0.7095660644030772</v>
+        <v>1.304460258783081</v>
       </c>
       <c r="H24">
-        <v>0.7003345005998938</v>
+        <v>0.6759126661580979</v>
       </c>
       <c r="I24">
-        <v>0.3924892767672823</v>
+        <v>0.1518634802676395</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.394866582849886</v>
+        <v>4.770208127663466</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.119227309834435</v>
+        <v>0.4294024311502587</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09119927091094837</v>
+        <v>0.2559804126394738</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01131437575318373</v>
+        <v>0.01074967251314263</v>
       </c>
       <c r="E25">
-        <v>0.4993839866810816</v>
+        <v>1.761265324086409</v>
       </c>
       <c r="F25">
-        <v>0.8054239697196977</v>
+        <v>1.119060824530266</v>
       </c>
       <c r="G25">
-        <v>0.6631504762681004</v>
+        <v>1.065683683826705</v>
       </c>
       <c r="H25">
-        <v>0.6881457377076856</v>
+        <v>0.5794928905829124</v>
       </c>
       <c r="I25">
-        <v>0.4018189057099235</v>
+        <v>0.1677894996420335</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.1488489659979</v>
+        <v>3.868120278346794</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.147462484397048</v>
+        <v>0.5028093766497173</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2149840425390153</v>
+        <v>0.8221960220840288</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01059318304347734</v>
+        <v>0.06908565290818558</v>
       </c>
       <c r="E2">
-        <v>1.442978707145485</v>
+        <v>0.1585430881460148</v>
       </c>
       <c r="F2">
-        <v>0.9549404581453587</v>
+        <v>0.3567824735716911</v>
       </c>
       <c r="G2">
-        <v>0.9021833779602986</v>
+        <v>0.2504647942175211</v>
       </c>
       <c r="H2">
-        <v>0.5148257463110752</v>
+        <v>0.002419815994728403</v>
       </c>
       <c r="I2">
-        <v>0.1813251582740705</v>
+        <v>0.01062094262392455</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2232122314448262</v>
       </c>
       <c r="K2">
-        <v>3.219563759889894</v>
+        <v>0.3878744673429164</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.270396680985186</v>
       </c>
       <c r="N2">
-        <v>0.5610444975312698</v>
+        <v>0.3046474313350132</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8419823135334923</v>
+      </c>
+      <c r="Q2">
+        <v>0.9480766451458749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1871901181444287</v>
+        <v>0.7239517016449497</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01051024604278439</v>
+        <v>0.060818518989052</v>
       </c>
       <c r="E3">
-        <v>1.235111819916398</v>
+        <v>0.1538070852022422</v>
       </c>
       <c r="F3">
-        <v>0.8493863994053186</v>
+        <v>0.3321213502990545</v>
       </c>
       <c r="G3">
-        <v>0.797358356770701</v>
+        <v>0.2344728376527527</v>
       </c>
       <c r="H3">
-        <v>0.4741728683957831</v>
+        <v>0.00348175997677308</v>
       </c>
       <c r="I3">
-        <v>0.1915190740945896</v>
+        <v>0.01234067371836067</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2195712052643231</v>
       </c>
       <c r="K3">
-        <v>2.78676227513867</v>
+        <v>0.3922941387109873</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.124860819672222</v>
       </c>
       <c r="N3">
-        <v>0.6028926683434737</v>
+        <v>0.2658456106834706</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8619173332193917</v>
+      </c>
+      <c r="Q3">
+        <v>0.906290312238994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1701099639867181</v>
+        <v>0.6629903151069527</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01046817007022405</v>
+        <v>0.0557434382699995</v>
       </c>
       <c r="E4">
-        <v>1.11045362876682</v>
+        <v>0.1508047801282135</v>
       </c>
       <c r="F4">
-        <v>0.786926026357051</v>
+        <v>0.3173707361391251</v>
       </c>
       <c r="G4">
-        <v>0.7354569436110552</v>
+        <v>0.2249625285670831</v>
       </c>
       <c r="H4">
-        <v>0.4505541679517506</v>
+        <v>0.004260518634918831</v>
       </c>
       <c r="I4">
-        <v>0.1982493325152674</v>
+        <v>0.01353966635117132</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2175625528255622</v>
       </c>
       <c r="K4">
-        <v>2.523476074946245</v>
+        <v>0.3951191507290144</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.035532788516548</v>
       </c>
       <c r="N4">
-        <v>0.6296945952495476</v>
+        <v>0.2421096443264759</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8747403981909905</v>
+      </c>
+      <c r="Q4">
+        <v>0.8817559550390399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1631448171938672</v>
+        <v>0.6366466359538379</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0104529316598807</v>
+        <v>0.05370755523188109</v>
       </c>
       <c r="E5">
-        <v>1.060284093884377</v>
+        <v>0.1494168458735921</v>
       </c>
       <c r="F5">
-        <v>0.7620036186722388</v>
+        <v>0.3112511411914625</v>
       </c>
       <c r="G5">
-        <v>0.7107848363941258</v>
+        <v>0.2209641766574606</v>
       </c>
       <c r="H5">
-        <v>0.4412369078342238</v>
+        <v>0.004611598400734607</v>
       </c>
       <c r="I5">
-        <v>0.201105933692407</v>
+        <v>0.0141524885001556</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2166957947110788</v>
       </c>
       <c r="K5">
-        <v>2.416687356085362</v>
+        <v>0.3959422561626393</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.9998935642105096</v>
       </c>
       <c r="N5">
-        <v>0.6408855113855658</v>
+        <v>0.2327193916732426</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8802170878434659</v>
+      </c>
+      <c r="Q5">
+        <v>0.8713947649818863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1619879344634825</v>
+        <v>0.6306197586504538</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01045050827640459</v>
+        <v>0.05340928927631694</v>
       </c>
       <c r="E6">
-        <v>1.051988288781217</v>
+        <v>0.1490139365172709</v>
       </c>
       <c r="F6">
-        <v>0.75789565494226</v>
+        <v>0.3099935341347191</v>
       </c>
       <c r="G6">
-        <v>0.7067196449677908</v>
+        <v>0.2200647304304653</v>
       </c>
       <c r="H6">
-        <v>0.4397075293046697</v>
+        <v>0.004675356343693815</v>
       </c>
       <c r="I6">
-        <v>0.2015870268564477</v>
+        <v>0.01437251579206134</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.21642867889868</v>
       </c>
       <c r="K6">
-        <v>2.398982350692847</v>
+        <v>0.3956469482850906</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.994910012649143</v>
       </c>
       <c r="N6">
-        <v>0.6427597328348242</v>
+        <v>0.2314828357822307</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8812697350790302</v>
+      </c>
+      <c r="Q6">
+        <v>0.8689168650734302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1700160506955655</v>
+        <v>0.6581342871032803</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01046795721603111</v>
+        <v>0.05582508344803472</v>
       </c>
       <c r="E7">
-        <v>1.109774622519296</v>
+        <v>0.1503199728854696</v>
       </c>
       <c r="F7">
-        <v>0.7865878413787755</v>
+        <v>0.3166136639534471</v>
       </c>
       <c r="G7">
-        <v>0.7351220499405855</v>
+        <v>0.2242536277130824</v>
       </c>
       <c r="H7">
-        <v>0.4504273046898533</v>
+        <v>0.004274363937124881</v>
       </c>
       <c r="I7">
-        <v>0.1982874019463665</v>
+        <v>0.01384868732293487</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2172059991547215</v>
       </c>
       <c r="K7">
-        <v>2.522033994867229</v>
+        <v>0.3939488472215853</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.037612653636018</v>
       </c>
       <c r="N7">
-        <v>0.6298444430209722</v>
+        <v>0.2428628196321512</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8751973483326516</v>
+      </c>
+      <c r="Q7">
+        <v>0.8795054210220172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2054029746906565</v>
+        <v>0.7824530378177315</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01056254220392994</v>
+        <v>0.06638052333175892</v>
       </c>
       <c r="E8">
-        <v>1.370614323881057</v>
+        <v>0.1563192916406475</v>
       </c>
       <c r="F8">
-        <v>0.9180197271257242</v>
+        <v>0.3473043310583463</v>
       </c>
       <c r="G8">
-        <v>0.8654874453933274</v>
+        <v>0.2440196583120411</v>
       </c>
       <c r="H8">
-        <v>0.5005111716180863</v>
+        <v>0.002768183071364061</v>
       </c>
       <c r="I8">
-        <v>0.1847394313668467</v>
+        <v>0.01154777299876741</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2214559681683212</v>
       </c>
       <c r="K8">
-        <v>3.069751614457346</v>
+        <v>0.3878319118843372</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.223628915277942</v>
       </c>
       <c r="N8">
-        <v>0.5752380989792969</v>
+        <v>0.292421335398231</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8493131586002534</v>
+      </c>
+      <c r="Q8">
+        <v>0.9306474864336138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.274742295751139</v>
+        <v>1.029180218847443</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01083574362263917</v>
+        <v>0.08691350285914012</v>
       </c>
       <c r="E9">
-        <v>1.911754220413073</v>
+        <v>0.1681760162737795</v>
       </c>
       <c r="F9">
-        <v>1.197418480737568</v>
+        <v>0.412044736922077</v>
       </c>
       <c r="G9">
-        <v>1.143956356096425</v>
+        <v>0.2866083737543335</v>
       </c>
       <c r="H9">
-        <v>0.6108766222341728</v>
+        <v>0.0008609814889699585</v>
       </c>
       <c r="I9">
-        <v>0.1621283147951189</v>
+        <v>0.007747635255646479</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2322908700157953</v>
       </c>
       <c r="K9">
-        <v>4.169116969872732</v>
+        <v>0.3788150868517697</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.584402522245369</v>
       </c>
       <c r="N9">
-        <v>0.4773988841176857</v>
+        <v>0.3888316579657953</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8025292317854316</v>
+      </c>
+      <c r="Q9">
+        <v>1.044230422439185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3257501109222005</v>
+        <v>1.187699949845467</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01112041642194583</v>
+        <v>0.1027651730779979</v>
       </c>
       <c r="E10">
-        <v>2.337158497022699</v>
+        <v>0.1722928783202207</v>
       </c>
       <c r="F10">
-        <v>1.420611578235437</v>
+        <v>0.4579043151189239</v>
       </c>
       <c r="G10">
-        <v>1.367619504436959</v>
+        <v>0.3158490488379186</v>
       </c>
       <c r="H10">
-        <v>0.7017204305378755</v>
+        <v>0.0004014391094053771</v>
       </c>
       <c r="I10">
-        <v>0.1482567487479045</v>
+        <v>0.005946211959172665</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2395095608697346</v>
       </c>
       <c r="K10">
-        <v>5.001423483325198</v>
+        <v>0.3678067578862034</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.859454556549082</v>
       </c>
       <c r="N10">
-        <v>0.4118520557291259</v>
+        <v>0.4436598295848313</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7743032987553313</v>
+      </c>
+      <c r="Q10">
+        <v>1.121747052473722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3489928050203162</v>
+        <v>1.105423730441657</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01127712690892224</v>
+        <v>0.1161091142914046</v>
       </c>
       <c r="E11">
-        <v>2.539369692218841</v>
+        <v>0.151659193033697</v>
       </c>
       <c r="F11">
-        <v>1.527258119334931</v>
+        <v>0.4455186534777198</v>
       </c>
       <c r="G11">
-        <v>1.474849778383316</v>
+        <v>0.2972095956692158</v>
       </c>
       <c r="H11">
-        <v>0.7457763851635377</v>
+        <v>0.01904867762321771</v>
       </c>
       <c r="I11">
-        <v>0.1426230567606073</v>
+        <v>0.006285490264485105</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2265399355829345</v>
       </c>
       <c r="K11">
-        <v>5.387800396954106</v>
+        <v>0.3271775582885823</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>2.058766482988574</v>
       </c>
       <c r="N11">
-        <v>0.3835856135243678</v>
+        <v>0.3323094599884087</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7932310774965998</v>
+      </c>
+      <c r="Q11">
+        <v>1.055248524209134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3578018912140806</v>
+        <v>1.012538089464528</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0113413443281587</v>
+        <v>0.1241462454883333</v>
       </c>
       <c r="E12">
-        <v>2.617457913143681</v>
+        <v>0.1502051080514741</v>
       </c>
       <c r="F12">
-        <v>1.568495945486163</v>
+        <v>0.42613223172971</v>
       </c>
       <c r="G12">
-        <v>1.516373846277105</v>
+        <v>0.2764615266371493</v>
       </c>
       <c r="H12">
-        <v>0.7629111225654981</v>
+        <v>0.05782621467307081</v>
       </c>
       <c r="I12">
-        <v>0.1405947185234062</v>
+        <v>0.006381933001485152</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2145436249723858</v>
       </c>
       <c r="K12">
-        <v>5.535459363000598</v>
+        <v>0.3016771734998134</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>2.167934866994273</v>
       </c>
       <c r="N12">
-        <v>0.3731218626009656</v>
+        <v>0.2400653638742369</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.8215723572066551</v>
+      </c>
+      <c r="Q12">
+        <v>0.9862095083848743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3559043262523574</v>
+        <v>0.8996249581113887</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01132727958789204</v>
+        <v>0.128654957338469</v>
       </c>
       <c r="E13">
-        <v>2.60056810734693</v>
+        <v>0.1622119695913025</v>
       </c>
       <c r="F13">
-        <v>1.559574651555209</v>
+        <v>0.3990292389588035</v>
       </c>
       <c r="G13">
-        <v>1.507387792921151</v>
+        <v>0.2517578966126521</v>
       </c>
       <c r="H13">
-        <v>0.7591997307802671</v>
+        <v>0.1137186594849595</v>
       </c>
       <c r="I13">
-        <v>0.1410267544818886</v>
+        <v>0.00673669420427192</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2019877901756573</v>
       </c>
       <c r="K13">
-        <v>5.503594439418293</v>
+        <v>0.2843085272053179</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>2.217045195571387</v>
       </c>
       <c r="N13">
-        <v>0.3753644446635662</v>
+        <v>0.1589733508538913</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.8584173657436338</v>
+      </c>
+      <c r="Q13">
+        <v>0.9075336601642192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3497173699173288</v>
+        <v>0.8114635462594038</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01128230616619064</v>
+        <v>0.1302473568312905</v>
       </c>
       <c r="E14">
-        <v>2.545762006298602</v>
+        <v>0.1786668206585347</v>
       </c>
       <c r="F14">
-        <v>1.530632950950235</v>
+        <v>0.3765141537115682</v>
       </c>
       <c r="G14">
-        <v>1.47824677682874</v>
+        <v>0.2326763255417248</v>
       </c>
       <c r="H14">
-        <v>0.7471766496224461</v>
+        <v>0.163180933504222</v>
       </c>
       <c r="I14">
-        <v>0.1424540321121555</v>
+        <v>0.007202847691540448</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1929209790173019</v>
       </c>
       <c r="K14">
-        <v>5.399919961551291</v>
+        <v>0.276283847304815</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>2.225011354436873</v>
       </c>
       <c r="N14">
-        <v>0.3827198366746511</v>
+        <v>0.1098598735353136</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.8888273134550246</v>
+      </c>
+      <c r="Q14">
+        <v>0.8480499743241126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3459287296951601</v>
+        <v>0.7841093241493695</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01125542554466108</v>
+        <v>0.1298822705734182</v>
       </c>
       <c r="E15">
-        <v>2.512397665970909</v>
+        <v>0.1835484515575345</v>
       </c>
       <c r="F15">
-        <v>1.51302018910043</v>
+        <v>0.3692101849419132</v>
       </c>
       <c r="G15">
-        <v>1.460520808730053</v>
+        <v>0.2269726728324599</v>
       </c>
       <c r="H15">
-        <v>0.7398728839179682</v>
+        <v>0.17574035101579</v>
       </c>
       <c r="I15">
-        <v>0.1433422012626728</v>
+        <v>0.007516429985607864</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1904931035366459</v>
       </c>
       <c r="K15">
-        <v>5.336599120233529</v>
+        <v>0.2752959618585025</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2.214743973762126</v>
       </c>
       <c r="N15">
-        <v>0.387257040935947</v>
+        <v>0.09864101009051751</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.8974729197243505</v>
+      </c>
+      <c r="Q15">
+        <v>0.8308456015958399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3242320955774289</v>
+        <v>0.7396626411394607</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0111108001981286</v>
+        <v>0.1220108393577419</v>
       </c>
       <c r="E16">
-        <v>2.32414010224646</v>
+        <v>0.1785911546475205</v>
       </c>
       <c r="F16">
-        <v>1.413754590858574</v>
+        <v>0.3544433299932592</v>
       </c>
       <c r="G16">
-        <v>1.360732794495419</v>
+        <v>0.2189639889432584</v>
       </c>
       <c r="H16">
-        <v>0.6989010811175547</v>
+        <v>0.1632514200291695</v>
       </c>
       <c r="I16">
-        <v>0.1486391798411439</v>
+        <v>0.008421754589821084</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1895941212386916</v>
       </c>
       <c r="K16">
-        <v>4.976347933026432</v>
+        <v>0.2826214902652424</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.085532207878771</v>
       </c>
       <c r="N16">
-        <v>0.4137319629512666</v>
+        <v>0.09426145890143545</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8991777627105151</v>
+      </c>
+      <c r="Q16">
+        <v>0.8118122947363418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3109332489383263</v>
+        <v>0.7513504050810127</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0110296689276943</v>
+        <v>0.1151535375439181</v>
       </c>
       <c r="E17">
-        <v>2.211051651864395</v>
+        <v>0.1646997608970029</v>
       </c>
       <c r="F17">
-        <v>1.354247169516299</v>
+        <v>0.355145936841005</v>
       </c>
       <c r="G17">
-        <v>1.301007577566594</v>
+        <v>0.2229647263682182</v>
       </c>
       <c r="H17">
-        <v>0.6745051069914609</v>
+        <v>0.1255999133700527</v>
       </c>
       <c r="I17">
-        <v>0.1520672314075657</v>
+        <v>0.008892507832506169</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1937562667381769</v>
       </c>
       <c r="K17">
-        <v>4.75748646168438</v>
+        <v>0.2921256956994993</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.982647815196373</v>
       </c>
       <c r="N17">
-        <v>0.4303823031310321</v>
+        <v>0.1153370863328362</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8844258625530301</v>
+      </c>
+      <c r="Q17">
+        <v>0.8289005763386541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3032876447891084</v>
+        <v>0.8178678351270605</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0109854972565202</v>
+        <v>0.1083844414804815</v>
       </c>
       <c r="E18">
-        <v>2.14680609380801</v>
+        <v>0.149053399357209</v>
       </c>
       <c r="F18">
-        <v>1.320493603165886</v>
+        <v>0.3696507570215886</v>
       </c>
       <c r="G18">
-        <v>1.267162735474187</v>
+        <v>0.238354405215361</v>
       </c>
       <c r="H18">
-        <v>0.6607262330914523</v>
+        <v>0.07274734482520984</v>
       </c>
       <c r="I18">
-        <v>0.1541021278401846</v>
+        <v>0.008659375463615504</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2030015109015721</v>
       </c>
       <c r="K18">
-        <v>4.632317598129646</v>
+        <v>0.307397124227176</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.88929446096779</v>
       </c>
       <c r="N18">
-        <v>0.4401040072538129</v>
+        <v>0.1678196576624913</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8560567728180501</v>
+      </c>
+      <c r="Q18">
+        <v>0.8808230370084402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3006995253508933</v>
+        <v>0.9197087903697536</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01097094357160699</v>
+        <v>0.1025475539851897</v>
       </c>
       <c r="E19">
-        <v>2.125183668664874</v>
+        <v>0.1448903260965529</v>
       </c>
       <c r="F19">
-        <v>1.309143226479719</v>
+        <v>0.3931867427308475</v>
       </c>
       <c r="G19">
-        <v>1.255786958050493</v>
+        <v>0.2611383836752879</v>
       </c>
       <c r="H19">
-        <v>0.6561027345985053</v>
+        <v>0.02727613636453441</v>
       </c>
       <c r="I19">
-        <v>0.1548017363439449</v>
+        <v>0.008447358249608072</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2152262156761608</v>
       </c>
       <c r="K19">
-        <v>4.59005376481781</v>
+        <v>0.3286879776278919</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.817153621741596</v>
       </c>
       <c r="N19">
-        <v>0.4434200015672238</v>
+        <v>0.2545059109239389</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8255668290376477</v>
+      </c>
+      <c r="Q19">
+        <v>0.9547044196281149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3123485536623321</v>
+        <v>1.13138030503211</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01103804116209872</v>
+        <v>0.09897627205668869</v>
       </c>
       <c r="E20">
-        <v>2.223005541015027</v>
+        <v>0.1697318810232531</v>
       </c>
       <c r="F20">
-        <v>1.360532026482915</v>
+        <v>0.4434436852180497</v>
       </c>
       <c r="G20">
-        <v>1.307312020116598</v>
+        <v>0.30585927705053</v>
       </c>
       <c r="H20">
-        <v>0.6770755089202396</v>
+        <v>0.0004664458994927401</v>
       </c>
       <c r="I20">
-        <v>0.1516957180480585</v>
+        <v>0.007272676018723168</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2363976929781018</v>
       </c>
       <c r="K20">
-        <v>4.780709124528983</v>
+        <v>0.3670169340097331</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.795723967758704</v>
       </c>
       <c r="N20">
-        <v>0.4285947351072221</v>
+        <v>0.4312821772665103</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7833782529208655</v>
+      </c>
+      <c r="Q20">
+        <v>1.093947293388112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3515344065352366</v>
+        <v>1.281368770908642</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01129537495030419</v>
+        <v>0.1100794069454736</v>
       </c>
       <c r="E21">
-        <v>2.561816421090768</v>
+        <v>0.1791539800600486</v>
       </c>
       <c r="F21">
-        <v>1.539109658753901</v>
+        <v>0.4857972243424058</v>
       </c>
       <c r="G21">
-        <v>1.486780153498984</v>
+        <v>0.3350888490934238</v>
       </c>
       <c r="H21">
-        <v>0.7506953489424291</v>
+        <v>3.263439898848475E-05</v>
       </c>
       <c r="I21">
-        <v>0.1420318900631745</v>
+        <v>0.005837123904830044</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2454884389997858</v>
       </c>
       <c r="K21">
-        <v>5.430333119048271</v>
+        <v>0.3663146019026762</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.993603384730505</v>
       </c>
       <c r="N21">
-        <v>0.3805527162960081</v>
+        <v>0.4995052068276067</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7583191510709</v>
+      </c>
+      <c r="Q21">
+        <v>1.175255848162976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3771898722774694</v>
+        <v>1.376025638538579</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01149257701096573</v>
+        <v>0.1175440251677742</v>
       </c>
       <c r="E22">
-        <v>2.79223911314908</v>
+        <v>0.183827446792705</v>
       </c>
       <c r="F22">
-        <v>1.660859912161087</v>
+        <v>0.5129756390515823</v>
       </c>
       <c r="G22">
-        <v>1.609499492900795</v>
+        <v>0.353621359316918</v>
       </c>
       <c r="H22">
-        <v>0.80147675319634</v>
+        <v>3.923753671752905E-06</v>
       </c>
       <c r="I22">
-        <v>0.136332375195563</v>
+        <v>0.004738699704160076</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.251191985461233</v>
       </c>
       <c r="K22">
-        <v>5.862880582872151</v>
+        <v>0.3651842179500022</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.123780695161201</v>
       </c>
       <c r="N22">
-        <v>0.3505636281720785</v>
+        <v>0.5343652303983788</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7431902209750874</v>
+      </c>
+      <c r="Q22">
+        <v>1.226681070030708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3634922265036096</v>
+        <v>1.330989203342341</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01138429641553174</v>
+        <v>0.1134243100856338</v>
       </c>
       <c r="E23">
-        <v>2.668335419098668</v>
+        <v>0.1818577093053175</v>
       </c>
       <c r="F23">
-        <v>1.595375126075211</v>
+        <v>0.4992043131062474</v>
       </c>
       <c r="G23">
-        <v>1.543457562021985</v>
+        <v>0.3444491167884678</v>
       </c>
       <c r="H23">
-        <v>0.7741080086333056</v>
+        <v>4.185383927879371E-06</v>
       </c>
       <c r="I23">
-        <v>0.1393151339729286</v>
+        <v>0.004969520139937345</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2485155282211906</v>
       </c>
       <c r="K23">
-        <v>5.63120619844176</v>
+        <v>0.3670849250542503</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.05112896088113</v>
       </c>
       <c r="N23">
-        <v>0.3664342438246675</v>
+        <v>0.5146768845234249</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7504968937710856</v>
+      </c>
+      <c r="Q23">
+        <v>1.201528700895437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3117086942947509</v>
+        <v>1.15071676786792</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0110342484458883</v>
+        <v>0.09807207945260643</v>
       </c>
       <c r="E24">
-        <v>2.21759880719415</v>
+        <v>0.1734667524295102</v>
       </c>
       <c r="F24">
-        <v>1.357689224620358</v>
+        <v>0.44696071138668</v>
       </c>
       <c r="G24">
-        <v>1.304460258783081</v>
+        <v>0.3094511988347932</v>
       </c>
       <c r="H24">
-        <v>0.6759126661580979</v>
+        <v>0.0003157379529419302</v>
       </c>
       <c r="I24">
-        <v>0.1518634802676395</v>
+        <v>0.006681620954442913</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2383324781378491</v>
       </c>
       <c r="K24">
-        <v>4.770208127663466</v>
+        <v>0.3724982709207225</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.78159229200304</v>
       </c>
       <c r="N24">
-        <v>0.4294024311502587</v>
+        <v>0.4421139331933119</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7806033113938611</v>
+      </c>
+      <c r="Q24">
+        <v>1.105609062503646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2559804126394738</v>
+        <v>0.9547521124618186</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01074967251314263</v>
+        <v>0.08155364777045548</v>
       </c>
       <c r="E25">
-        <v>1.761265324086409</v>
+        <v>0.1642271855734219</v>
       </c>
       <c r="F25">
-        <v>1.119060824530266</v>
+        <v>0.3929221510928116</v>
       </c>
       <c r="G25">
-        <v>1.065683683826705</v>
+        <v>0.2735953146080234</v>
       </c>
       <c r="H25">
-        <v>0.5794928905829124</v>
+        <v>0.001263778276708982</v>
       </c>
       <c r="I25">
-        <v>0.1677894996420335</v>
+        <v>0.009150071619681732</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.228531977349725</v>
       </c>
       <c r="K25">
-        <v>3.868120278346794</v>
+        <v>0.379092568199674</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.491415478386898</v>
       </c>
       <c r="N25">
-        <v>0.5028093766497173</v>
+        <v>0.3642631824090188</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8155711138875823</v>
+      </c>
+      <c r="Q25">
+        <v>1.008613725708159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8221960220840288</v>
+        <v>0.7541467562327284</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06908565290818558</v>
+        <v>0.07033516422663411</v>
       </c>
       <c r="E2">
-        <v>0.1585430881460148</v>
+        <v>0.1391797771823118</v>
       </c>
       <c r="F2">
-        <v>0.3567824735716911</v>
+        <v>0.3492914246590075</v>
       </c>
       <c r="G2">
-        <v>0.2504647942175211</v>
+        <v>0.2263309883921139</v>
       </c>
       <c r="H2">
-        <v>0.002419815994728403</v>
+        <v>0.001516534732755037</v>
       </c>
       <c r="I2">
-        <v>0.01062094262392455</v>
+        <v>0.00719939222056265</v>
       </c>
       <c r="J2">
-        <v>0.2232122314448262</v>
+        <v>0.2610131462565946</v>
       </c>
       <c r="K2">
-        <v>0.3878744673429164</v>
+        <v>0.3431471526244234</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1536530506275362</v>
       </c>
       <c r="M2">
-        <v>1.270396680985186</v>
+        <v>0.1066581493303742</v>
       </c>
       <c r="N2">
-        <v>0.3046474313350132</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.28247522841562</v>
       </c>
       <c r="P2">
-        <v>0.8419823135334923</v>
+        <v>0.3177988056465608</v>
       </c>
       <c r="Q2">
-        <v>0.9480766451458749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8180928740161058</v>
+      </c>
+      <c r="S2">
+        <v>0.9247765243716941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7239517016449497</v>
+        <v>0.6676655967511635</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.060818518989052</v>
+        <v>0.0617065952465623</v>
       </c>
       <c r="E3">
-        <v>0.1538070852022422</v>
+        <v>0.1355423640131992</v>
       </c>
       <c r="F3">
-        <v>0.3321213502990545</v>
+        <v>0.3262205864395256</v>
       </c>
       <c r="G3">
-        <v>0.2344728376527527</v>
+        <v>0.2116276550723484</v>
       </c>
       <c r="H3">
-        <v>0.00348175997677308</v>
+        <v>0.002315170118250331</v>
       </c>
       <c r="I3">
-        <v>0.01234067371836067</v>
+        <v>0.008395768514907864</v>
       </c>
       <c r="J3">
-        <v>0.2195712052643231</v>
+        <v>0.256709251756071</v>
       </c>
       <c r="K3">
-        <v>0.3922941387109873</v>
+        <v>0.3487611584638408</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1585876621825495</v>
       </c>
       <c r="M3">
-        <v>1.124860819672222</v>
+        <v>0.1077041486589758</v>
       </c>
       <c r="N3">
-        <v>0.2658456106834706</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.129779321976798</v>
       </c>
       <c r="P3">
-        <v>0.8619173332193917</v>
+        <v>0.2765804395514664</v>
       </c>
       <c r="Q3">
-        <v>0.906290312238994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8341472519443407</v>
+      </c>
+      <c r="S3">
+        <v>0.8875441534834607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6629903151069527</v>
+        <v>0.6137090471414979</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0557434382699995</v>
+        <v>0.05641578638287115</v>
       </c>
       <c r="E4">
-        <v>0.1508047801282135</v>
+        <v>0.1332180133070118</v>
       </c>
       <c r="F4">
-        <v>0.3173707361391251</v>
+        <v>0.3123982120315461</v>
       </c>
       <c r="G4">
-        <v>0.2249625285670831</v>
+        <v>0.2029343154161651</v>
       </c>
       <c r="H4">
-        <v>0.004260518634918831</v>
+        <v>0.002913239822726676</v>
       </c>
       <c r="I4">
-        <v>0.01353966635117132</v>
+        <v>0.009248416793446346</v>
       </c>
       <c r="J4">
-        <v>0.2175625528255622</v>
+        <v>0.2541734548955077</v>
       </c>
       <c r="K4">
-        <v>0.3951191507290144</v>
+        <v>0.3522736649365523</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1617753993019839</v>
       </c>
       <c r="M4">
-        <v>1.035532788516548</v>
+        <v>0.1087396031936452</v>
       </c>
       <c r="N4">
-        <v>0.2421096443264759</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.03619499904454</v>
       </c>
       <c r="P4">
-        <v>0.8747403981909905</v>
+        <v>0.2514103688220786</v>
       </c>
       <c r="Q4">
-        <v>0.8817559550390399</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.84465309094265</v>
+      </c>
+      <c r="S4">
+        <v>0.8656567528135639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6366466359538379</v>
+        <v>0.5902582260086717</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05370755523188109</v>
+        <v>0.05429222010249646</v>
       </c>
       <c r="E5">
-        <v>0.1494168458735921</v>
+        <v>0.1321240075182093</v>
       </c>
       <c r="F5">
-        <v>0.3112511411914625</v>
+        <v>0.3066560798888673</v>
       </c>
       <c r="G5">
-        <v>0.2209641766574606</v>
+        <v>0.1992881955425219</v>
       </c>
       <c r="H5">
-        <v>0.004611598400734607</v>
+        <v>0.003185429943712681</v>
       </c>
       <c r="I5">
-        <v>0.0141524885001556</v>
+        <v>0.009723960518355668</v>
       </c>
       <c r="J5">
-        <v>0.2166957947110788</v>
+        <v>0.2530646286247915</v>
       </c>
       <c r="K5">
-        <v>0.3959422561626393</v>
+        <v>0.3534057828400581</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1629379409847989</v>
       </c>
       <c r="M5">
-        <v>0.9998935642105096</v>
+        <v>0.1091994214408913</v>
       </c>
       <c r="N5">
-        <v>0.2327193916732426</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9988319015645288</v>
       </c>
       <c r="P5">
-        <v>0.8802170878434659</v>
+        <v>0.2414392092455984</v>
       </c>
       <c r="Q5">
-        <v>0.8713947649818863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8492202458171505</v>
+      </c>
+      <c r="S5">
+        <v>0.8563736501887007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6306197586504538</v>
+        <v>0.5848228045232133</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05340928927631694</v>
+        <v>0.05397786241063329</v>
       </c>
       <c r="E6">
-        <v>0.1490139365172709</v>
+        <v>0.1317907085968324</v>
       </c>
       <c r="F6">
-        <v>0.3099935341347191</v>
+        <v>0.3054739368023007</v>
       </c>
       <c r="G6">
-        <v>0.2200647304304653</v>
+        <v>0.1984643318598103</v>
       </c>
       <c r="H6">
-        <v>0.004675356343693815</v>
+        <v>0.003235057568670263</v>
       </c>
       <c r="I6">
-        <v>0.01437251579206134</v>
+        <v>0.009934572047568757</v>
       </c>
       <c r="J6">
-        <v>0.21642867889868</v>
+        <v>0.25275794212601</v>
       </c>
       <c r="K6">
-        <v>0.3956469482850906</v>
+        <v>0.3532107111943557</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1629195602769951</v>
       </c>
       <c r="M6">
-        <v>0.994910012649143</v>
+        <v>0.1092064353630064</v>
       </c>
       <c r="N6">
-        <v>0.2314828357822307</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9935333624845271</v>
       </c>
       <c r="P6">
-        <v>0.8812697350790302</v>
+        <v>0.2400958645657454</v>
       </c>
       <c r="Q6">
-        <v>0.8689168650734302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.850145394676673</v>
+      </c>
+      <c r="S6">
+        <v>0.8541167578304822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6581342871032803</v>
+        <v>0.6093411767287762</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05582508344803472</v>
+        <v>0.05660738020814193</v>
       </c>
       <c r="E7">
-        <v>0.1503199728854696</v>
+        <v>0.1328439405703747</v>
       </c>
       <c r="F7">
-        <v>0.3166136639534471</v>
+        <v>0.3110290091304933</v>
       </c>
       <c r="G7">
-        <v>0.2242536277130824</v>
+        <v>0.204676314582521</v>
       </c>
       <c r="H7">
-        <v>0.004274363937124881</v>
+        <v>0.002926106395366945</v>
       </c>
       <c r="I7">
-        <v>0.01384868732293487</v>
+        <v>0.009593954902211266</v>
       </c>
       <c r="J7">
-        <v>0.2172059991547215</v>
+        <v>0.2502720186097136</v>
       </c>
       <c r="K7">
-        <v>0.3939488472215853</v>
+        <v>0.3510914550423561</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1611460776023748</v>
       </c>
       <c r="M7">
-        <v>1.037612653636018</v>
+        <v>0.1084887253119451</v>
       </c>
       <c r="N7">
-        <v>0.2428628196321512</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.0369219921987</v>
       </c>
       <c r="P7">
-        <v>0.8751973483326516</v>
+        <v>0.2519479318455353</v>
       </c>
       <c r="Q7">
-        <v>0.8795054210220172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8453243614678634</v>
+      </c>
+      <c r="S7">
+        <v>0.8615327719594887</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7824530378177315</v>
+        <v>0.719392527872003</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06638052333175892</v>
+        <v>0.06788758803589445</v>
       </c>
       <c r="E8">
-        <v>0.1563192916406475</v>
+        <v>0.1375809659327754</v>
       </c>
       <c r="F8">
-        <v>0.3473043310583463</v>
+        <v>0.3382433551818167</v>
       </c>
       <c r="G8">
-        <v>0.2440196583120411</v>
+        <v>0.2284462967016339</v>
       </c>
       <c r="H8">
-        <v>0.002768183071364061</v>
+        <v>0.001780844975273088</v>
       </c>
       <c r="I8">
-        <v>0.01154777299876741</v>
+        <v>0.008004483312483934</v>
       </c>
       <c r="J8">
-        <v>0.2214559681683212</v>
+        <v>0.2474983746033246</v>
       </c>
       <c r="K8">
-        <v>0.3878319118843372</v>
+        <v>0.3432338390183904</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1544361321033634</v>
       </c>
       <c r="M8">
-        <v>1.223628915277942</v>
+        <v>0.1064411519317163</v>
       </c>
       <c r="N8">
-        <v>0.292421335398231</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.22891770381446</v>
       </c>
       <c r="P8">
-        <v>0.8493131586002534</v>
+        <v>0.3040938987546866</v>
       </c>
       <c r="Q8">
-        <v>0.9306474864336138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8247800950802642</v>
+      </c>
+      <c r="S8">
+        <v>0.9024416543428799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.029180218847443</v>
+        <v>0.9353122107197578</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08691350285914012</v>
+        <v>0.08947793710905927</v>
       </c>
       <c r="E9">
-        <v>0.1681760162737795</v>
+        <v>0.1466949927740568</v>
       </c>
       <c r="F9">
-        <v>0.412044736922077</v>
+        <v>0.3980729454797398</v>
       </c>
       <c r="G9">
-        <v>0.2866083737543335</v>
+        <v>0.2702212413727665</v>
       </c>
       <c r="H9">
-        <v>0.0008609814889699585</v>
+        <v>0.0004188646277458741</v>
       </c>
       <c r="I9">
-        <v>0.007747635255646479</v>
+        <v>0.005323686531451877</v>
       </c>
       <c r="J9">
-        <v>0.2322908700157953</v>
+        <v>0.2560502610605297</v>
       </c>
       <c r="K9">
-        <v>0.3788150868517697</v>
+        <v>0.3307179335310817</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1436825717026551</v>
       </c>
       <c r="M9">
-        <v>1.584402522245369</v>
+        <v>0.1061589059252874</v>
       </c>
       <c r="N9">
-        <v>0.3888316579657953</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.607157062302861</v>
       </c>
       <c r="P9">
-        <v>0.8025292317854316</v>
+        <v>0.4066632456809742</v>
       </c>
       <c r="Q9">
-        <v>1.044230422439185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7882505560160808</v>
+      </c>
+      <c r="S9">
+        <v>1.001784628099983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.187699949845467</v>
+        <v>1.074272296448072</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1027651730779979</v>
+        <v>0.1067956393711427</v>
       </c>
       <c r="E10">
-        <v>0.1722928783202207</v>
+        <v>0.1499543519426805</v>
       </c>
       <c r="F10">
-        <v>0.4579043151189239</v>
+        <v>0.4366576789261316</v>
       </c>
       <c r="G10">
-        <v>0.3158490488379186</v>
+        <v>0.314102812856305</v>
       </c>
       <c r="H10">
-        <v>0.0004014391094053771</v>
+        <v>0.0002346131923491868</v>
       </c>
       <c r="I10">
-        <v>0.005946211959172665</v>
+        <v>0.004214997165265189</v>
       </c>
       <c r="J10">
-        <v>0.2395095608697346</v>
+        <v>0.2421370053472458</v>
       </c>
       <c r="K10">
-        <v>0.3678067578862034</v>
+        <v>0.3173919012578281</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1350056791084384</v>
       </c>
       <c r="M10">
-        <v>1.859454556549082</v>
+        <v>0.1059953792052255</v>
       </c>
       <c r="N10">
-        <v>0.4436598295848313</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.886698764492166</v>
       </c>
       <c r="P10">
-        <v>0.7743032987553313</v>
+        <v>0.4642368818092706</v>
       </c>
       <c r="Q10">
-        <v>1.121747052473722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7695944594143853</v>
+      </c>
+      <c r="S10">
+        <v>1.057803382514919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.105423730441657</v>
+        <v>1.011588730778328</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1161091142914046</v>
+        <v>0.1216827565439758</v>
       </c>
       <c r="E11">
-        <v>0.151659193033697</v>
+        <v>0.1349750470787594</v>
       </c>
       <c r="F11">
-        <v>0.4455186534777198</v>
+        <v>0.418383246766723</v>
       </c>
       <c r="G11">
-        <v>0.2972095956692158</v>
+        <v>0.3304329099244541</v>
       </c>
       <c r="H11">
-        <v>0.01904867762321771</v>
+        <v>0.01884775866764699</v>
       </c>
       <c r="I11">
-        <v>0.006285490264485105</v>
+        <v>0.004756709957339567</v>
       </c>
       <c r="J11">
-        <v>0.2265399355829345</v>
+        <v>0.1961009594136272</v>
       </c>
       <c r="K11">
-        <v>0.3271775582885823</v>
+        <v>0.2844324641726388</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1225897045683677</v>
       </c>
       <c r="M11">
-        <v>2.058766482988574</v>
+        <v>0.09456923713586107</v>
       </c>
       <c r="N11">
-        <v>0.3323094599884087</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.062149252793972</v>
       </c>
       <c r="P11">
-        <v>0.7932310774965998</v>
+        <v>0.3452350010255856</v>
       </c>
       <c r="Q11">
-        <v>1.055248524209134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7982057794589466</v>
+      </c>
+      <c r="S11">
+        <v>0.9751566942844363</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.012538089464528</v>
+        <v>0.9373358306806097</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1241462454883333</v>
+        <v>0.1302920944592785</v>
       </c>
       <c r="E12">
-        <v>0.1502051080514741</v>
+        <v>0.1362584629469685</v>
       </c>
       <c r="F12">
-        <v>0.42613223172971</v>
+        <v>0.3980224759625557</v>
       </c>
       <c r="G12">
-        <v>0.2764615266371493</v>
+        <v>0.3260409499816745</v>
       </c>
       <c r="H12">
-        <v>0.05782621467307081</v>
+        <v>0.05758254162275023</v>
       </c>
       <c r="I12">
-        <v>0.006381933001485152</v>
+        <v>0.00482944838240762</v>
       </c>
       <c r="J12">
-        <v>0.2145436249723858</v>
+        <v>0.1743056581172695</v>
       </c>
       <c r="K12">
-        <v>0.3016771734998134</v>
+        <v>0.2652227390386095</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1163899581397039</v>
       </c>
       <c r="M12">
-        <v>2.167934866994273</v>
+        <v>0.08671393954893247</v>
       </c>
       <c r="N12">
-        <v>0.2400653638742369</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.153835707676052</v>
       </c>
       <c r="P12">
-        <v>0.8215723572066551</v>
+        <v>0.2477185050226893</v>
       </c>
       <c r="Q12">
-        <v>0.9862095083848743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.8307778850763441</v>
+      </c>
+      <c r="S12">
+        <v>0.9046201643047169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8996249581113887</v>
+        <v>0.8434961355509927</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.128654957338469</v>
+        <v>0.1342160739877443</v>
       </c>
       <c r="E13">
-        <v>0.1622119695913025</v>
+        <v>0.1495206947580332</v>
       </c>
       <c r="F13">
-        <v>0.3990292389588035</v>
+        <v>0.3751482491384195</v>
       </c>
       <c r="G13">
-        <v>0.2517578966126521</v>
+        <v>0.2978285450081017</v>
       </c>
       <c r="H13">
-        <v>0.1137186594849595</v>
+        <v>0.1134119552065158</v>
       </c>
       <c r="I13">
-        <v>0.00673669420427192</v>
+        <v>0.005046471796076091</v>
       </c>
       <c r="J13">
-        <v>0.2019877901756573</v>
+        <v>0.1698716788665351</v>
       </c>
       <c r="K13">
-        <v>0.2843085272053179</v>
+        <v>0.2534424387627929</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.113121082889114</v>
       </c>
       <c r="M13">
-        <v>2.217045195571387</v>
+        <v>0.0809579848036952</v>
       </c>
       <c r="N13">
-        <v>0.1589733508538913</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.193399487462756</v>
       </c>
       <c r="P13">
-        <v>0.8584173657436338</v>
+        <v>0.1629456195192418</v>
       </c>
       <c r="Q13">
-        <v>0.9075336601642192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.8660960676501333</v>
+      </c>
+      <c r="S13">
+        <v>0.839505497926254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8114635462594038</v>
+        <v>0.7686478588281886</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1302473568312905</v>
+        <v>0.1348586145510779</v>
       </c>
       <c r="E14">
-        <v>0.1786668206585347</v>
+        <v>0.1662110469801306</v>
       </c>
       <c r="F14">
-        <v>0.3765141537115682</v>
+        <v>0.3577004583339232</v>
       </c>
       <c r="G14">
-        <v>0.2326763255417248</v>
+        <v>0.2684145882120177</v>
       </c>
       <c r="H14">
-        <v>0.163180933504222</v>
+        <v>0.1628199160640236</v>
       </c>
       <c r="I14">
-        <v>0.007202847691540448</v>
+        <v>0.005376156105833196</v>
       </c>
       <c r="J14">
-        <v>0.1929209790173019</v>
+        <v>0.1733415326186645</v>
       </c>
       <c r="K14">
-        <v>0.276283847304815</v>
+        <v>0.2485894234728079</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1119302466317321</v>
       </c>
       <c r="M14">
-        <v>2.225011354436873</v>
+        <v>0.07813738700177186</v>
       </c>
       <c r="N14">
-        <v>0.1098598735353136</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.198238062135715</v>
       </c>
       <c r="P14">
-        <v>0.8888273134550246</v>
+        <v>0.1119333822758009</v>
       </c>
       <c r="Q14">
-        <v>0.8480499743241126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.8922379651743597</v>
+      </c>
+      <c r="S14">
+        <v>0.7953529419439178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7841093241493695</v>
+        <v>0.7448183942769617</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1298822705734182</v>
+        <v>0.1340344915989249</v>
       </c>
       <c r="E15">
-        <v>0.1835484515575345</v>
+        <v>0.1711441895644761</v>
       </c>
       <c r="F15">
-        <v>0.3692101849419132</v>
+        <v>0.3525463171648298</v>
       </c>
       <c r="G15">
-        <v>0.2269726728324599</v>
+        <v>0.256994535816176</v>
       </c>
       <c r="H15">
-        <v>0.17574035101579</v>
+        <v>0.17535476605984</v>
       </c>
       <c r="I15">
-        <v>0.007516429985607864</v>
+        <v>0.005648390897584399</v>
       </c>
       <c r="J15">
-        <v>0.1904931035366459</v>
+        <v>0.1770789552514955</v>
       </c>
       <c r="K15">
-        <v>0.2752959618585025</v>
+        <v>0.2482619321627393</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1118700466911647</v>
       </c>
       <c r="M15">
-        <v>2.214743973762126</v>
+        <v>0.07775356461342398</v>
       </c>
       <c r="N15">
-        <v>0.09864101009051751</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.188778269472891</v>
       </c>
       <c r="P15">
-        <v>0.8974729197243505</v>
+        <v>0.1003754591472372</v>
       </c>
       <c r="Q15">
-        <v>0.8308456015958399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.8986836931947551</v>
+      </c>
+      <c r="S15">
+        <v>0.7844440078031738</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7396626411394607</v>
+        <v>0.7030798180161639</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1220108393577419</v>
+        <v>0.1243459949323267</v>
       </c>
       <c r="E16">
-        <v>0.1785911546475205</v>
+        <v>0.1668603140726042</v>
       </c>
       <c r="F16">
-        <v>0.3544433299932592</v>
+        <v>0.3453704084167768</v>
       </c>
       <c r="G16">
-        <v>0.2189639889432584</v>
+        <v>0.2228806573964945</v>
       </c>
       <c r="H16">
-        <v>0.1632514200291695</v>
+        <v>0.1627361888511416</v>
       </c>
       <c r="I16">
-        <v>0.008421754589821084</v>
+        <v>0.00629338419904979</v>
       </c>
       <c r="J16">
-        <v>0.1895941212386916</v>
+        <v>0.2042409349712742</v>
       </c>
       <c r="K16">
-        <v>0.2826214902652424</v>
+        <v>0.2552170434348815</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1137949453640414</v>
       </c>
       <c r="M16">
-        <v>2.085532207878771</v>
+        <v>0.08013337230645945</v>
       </c>
       <c r="N16">
-        <v>0.09426145890143545</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.072800166781349</v>
       </c>
       <c r="P16">
-        <v>0.8991777627105151</v>
+        <v>0.09663193891061894</v>
       </c>
       <c r="Q16">
-        <v>0.8118122947363418</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.891785408074746</v>
+      </c>
+      <c r="S16">
+        <v>0.7868884620155967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7513504050810127</v>
+        <v>0.7102365497730716</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1151535375439181</v>
+        <v>0.1168711159136393</v>
       </c>
       <c r="E17">
-        <v>0.1646997608970029</v>
+        <v>0.1531156900699457</v>
       </c>
       <c r="F17">
-        <v>0.355145936841005</v>
+        <v>0.3483987767022469</v>
       </c>
       <c r="G17">
-        <v>0.2229647263682182</v>
+        <v>0.2154640365674041</v>
       </c>
       <c r="H17">
-        <v>0.1255999133700527</v>
+        <v>0.1250128628816469</v>
       </c>
       <c r="I17">
-        <v>0.008892507832506169</v>
+        <v>0.006640895910410727</v>
       </c>
       <c r="J17">
-        <v>0.1937562667381769</v>
+        <v>0.2212062902674319</v>
       </c>
       <c r="K17">
-        <v>0.2921256956994993</v>
+        <v>0.263144634586312</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1163564708754261</v>
       </c>
       <c r="M17">
-        <v>1.982647815196373</v>
+        <v>0.08311471415134974</v>
       </c>
       <c r="N17">
-        <v>0.1153370863328362</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.979196916514098</v>
       </c>
       <c r="P17">
-        <v>0.8844258625530301</v>
+        <v>0.1191197827871306</v>
       </c>
       <c r="Q17">
-        <v>0.8289005763386541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8741803944636715</v>
+      </c>
+      <c r="S17">
+        <v>0.8103091395986866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8178678351270605</v>
+        <v>0.7644966152908239</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1083844414804815</v>
+        <v>0.1101047707008149</v>
       </c>
       <c r="E18">
-        <v>0.149053399357209</v>
+        <v>0.1366356028414657</v>
       </c>
       <c r="F18">
-        <v>0.3696507570215886</v>
+        <v>0.3623430872020137</v>
       </c>
       <c r="G18">
-        <v>0.238354405215361</v>
+        <v>0.2245743842393537</v>
       </c>
       <c r="H18">
-        <v>0.07274734482520984</v>
+        <v>0.07215866183467767</v>
       </c>
       <c r="I18">
-        <v>0.008659375463615504</v>
+        <v>0.006357684693632848</v>
       </c>
       <c r="J18">
-        <v>0.2030015109015721</v>
+        <v>0.2354374035515079</v>
       </c>
       <c r="K18">
-        <v>0.307397124227176</v>
+        <v>0.2751158078462748</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1207232418667541</v>
       </c>
       <c r="M18">
-        <v>1.88929446096779</v>
+        <v>0.08758888763218131</v>
       </c>
       <c r="N18">
-        <v>0.1678196576624913</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.895807741044194</v>
       </c>
       <c r="P18">
-        <v>0.8560567728180501</v>
+        <v>0.1745039519643683</v>
       </c>
       <c r="Q18">
-        <v>0.8808230370084402</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.8458254222213952</v>
+      </c>
+      <c r="S18">
+        <v>0.8601262032297257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9197087903697536</v>
+        <v>0.8481429274087873</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1025475539851897</v>
+        <v>0.1045982604780562</v>
       </c>
       <c r="E19">
-        <v>0.1448903260965529</v>
+        <v>0.1299212610551366</v>
       </c>
       <c r="F19">
-        <v>0.3931867427308475</v>
+        <v>0.3835885472544902</v>
       </c>
       <c r="G19">
-        <v>0.2611383836752879</v>
+        <v>0.2435100009279338</v>
       </c>
       <c r="H19">
-        <v>0.02727613636453441</v>
+        <v>0.02676784066922266</v>
       </c>
       <c r="I19">
-        <v>0.008447358249608072</v>
+        <v>0.0062730337104977</v>
       </c>
       <c r="J19">
-        <v>0.2152262156761608</v>
+        <v>0.2481216238391042</v>
       </c>
       <c r="K19">
-        <v>0.3286879776278919</v>
+        <v>0.2912135216194383</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1268074608543337</v>
       </c>
       <c r="M19">
-        <v>1.817153621741596</v>
+        <v>0.09360719867958345</v>
       </c>
       <c r="N19">
-        <v>0.2545059109239389</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.834202429068881</v>
       </c>
       <c r="P19">
-        <v>0.8255668290376477</v>
+        <v>0.2657865424071559</v>
       </c>
       <c r="Q19">
-        <v>0.9547044196281149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.816086383454504</v>
+      </c>
+      <c r="S19">
+        <v>0.9266925571527622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.13138030503211</v>
+        <v>1.02409025072771</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09897627205668869</v>
+        <v>0.102167707182268</v>
       </c>
       <c r="E20">
-        <v>0.1697318810232531</v>
+        <v>0.1477411755906424</v>
       </c>
       <c r="F20">
-        <v>0.4434436852180497</v>
+        <v>0.4266615345085327</v>
       </c>
       <c r="G20">
-        <v>0.30585927705053</v>
+        <v>0.2913566427689602</v>
       </c>
       <c r="H20">
-        <v>0.0004664458994927401</v>
+        <v>0.0002293851181978113</v>
       </c>
       <c r="I20">
-        <v>0.007272676018723168</v>
+        <v>0.005505139981892171</v>
       </c>
       <c r="J20">
-        <v>0.2363976929781018</v>
+        <v>0.2563888913121346</v>
       </c>
       <c r="K20">
-        <v>0.3670169340097331</v>
+        <v>0.3183802898943533</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1362848175360973</v>
       </c>
       <c r="M20">
-        <v>1.795723967758704</v>
+        <v>0.1049856917578751</v>
       </c>
       <c r="N20">
-        <v>0.4312821772665103</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.826151518507771</v>
       </c>
       <c r="P20">
-        <v>0.7833782529208655</v>
+        <v>0.451675157867669</v>
       </c>
       <c r="Q20">
-        <v>1.093947293388112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7756863203395525</v>
+      </c>
+      <c r="S20">
+        <v>1.043465834590847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.281368770908642</v>
+        <v>1.156087358590014</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1100794069454736</v>
+        <v>0.1168368299124154</v>
       </c>
       <c r="E21">
-        <v>0.1791539800600486</v>
+        <v>0.1561503992032964</v>
       </c>
       <c r="F21">
-        <v>0.4857972243424058</v>
+        <v>0.4500392750651159</v>
       </c>
       <c r="G21">
-        <v>0.3350888490934238</v>
+        <v>0.3816874330751858</v>
       </c>
       <c r="H21">
-        <v>3.263439898848475E-05</v>
+        <v>1.562646437580639E-06</v>
       </c>
       <c r="I21">
-        <v>0.005837123904830044</v>
+        <v>0.004586094849860167</v>
       </c>
       <c r="J21">
-        <v>0.2454884389997858</v>
+        <v>0.1947751680968182</v>
       </c>
       <c r="K21">
-        <v>0.3663146019026762</v>
+        <v>0.3113786032061387</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1312264887936223</v>
       </c>
       <c r="M21">
-        <v>1.993603384730505</v>
+        <v>0.1064456550858068</v>
       </c>
       <c r="N21">
-        <v>0.4995052068276067</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.004906143387927</v>
       </c>
       <c r="P21">
-        <v>0.7583191510709</v>
+        <v>0.519923199751247</v>
       </c>
       <c r="Q21">
-        <v>1.175255848162976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7621876243259251</v>
+      </c>
+      <c r="S21">
+        <v>1.067502192838703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.376025638538579</v>
+        <v>1.240086310717658</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1175440251677742</v>
+        <v>0.1268800508580199</v>
       </c>
       <c r="E22">
-        <v>0.183827446792705</v>
+        <v>0.1606632297986117</v>
       </c>
       <c r="F22">
-        <v>0.5129756390515823</v>
+        <v>0.4637366560080238</v>
       </c>
       <c r="G22">
-        <v>0.353621359316918</v>
+        <v>0.4486527940226637</v>
       </c>
       <c r="H22">
-        <v>3.923753671752905E-06</v>
+        <v>6.756941662589E-05</v>
       </c>
       <c r="I22">
-        <v>0.004738699704160076</v>
+        <v>0.003717472980673264</v>
       </c>
       <c r="J22">
-        <v>0.251191985461233</v>
+        <v>0.1604887071735774</v>
       </c>
       <c r="K22">
-        <v>0.3651842179500022</v>
+        <v>0.3061768730411849</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1278680137882269</v>
       </c>
       <c r="M22">
-        <v>2.123780695161201</v>
+        <v>0.1074056246196715</v>
       </c>
       <c r="N22">
-        <v>0.5343652303983788</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.119774773796934</v>
       </c>
       <c r="P22">
-        <v>0.7431902209750874</v>
+        <v>0.5540356547779908</v>
       </c>
       <c r="Q22">
-        <v>1.226681070030708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7553042751931613</v>
+      </c>
+      <c r="S22">
+        <v>1.078413656302928</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.330989203342341</v>
+        <v>1.199903187038103</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1134243100856338</v>
+        <v>0.1210441713474211</v>
       </c>
       <c r="E23">
-        <v>0.1818577093053175</v>
+        <v>0.1585350989985344</v>
       </c>
       <c r="F23">
-        <v>0.4992043131062474</v>
+        <v>0.4588706067115069</v>
       </c>
       <c r="G23">
-        <v>0.3444491167884678</v>
+        <v>0.4057123220822376</v>
       </c>
       <c r="H23">
-        <v>4.185383927879371E-06</v>
+        <v>2.121055761894475E-05</v>
       </c>
       <c r="I23">
-        <v>0.004969520139937345</v>
+        <v>0.003769094751726598</v>
       </c>
       <c r="J23">
-        <v>0.2485155282211906</v>
+        <v>0.1839257801927943</v>
       </c>
       <c r="K23">
-        <v>0.3670849250542503</v>
+        <v>0.3103347782016712</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1300791601940858</v>
       </c>
       <c r="M23">
-        <v>2.05112896088113</v>
+        <v>0.1074771234917211</v>
       </c>
       <c r="N23">
-        <v>0.5146768845234249</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.058895007511126</v>
       </c>
       <c r="P23">
-        <v>0.7504968937710856</v>
+        <v>0.5352857962305109</v>
       </c>
       <c r="Q23">
-        <v>1.201528700895437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7573038246700108</v>
+      </c>
+      <c r="S23">
+        <v>1.079992452397619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.15071676786792</v>
+        <v>1.040515808946225</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09807207945260643</v>
+        <v>0.1012758949272552</v>
       </c>
       <c r="E24">
-        <v>0.1734667524295102</v>
+        <v>0.1507061608198388</v>
       </c>
       <c r="F24">
-        <v>0.44696071138668</v>
+        <v>0.4299376648491418</v>
       </c>
       <c r="G24">
-        <v>0.3094511988347932</v>
+        <v>0.2940951740986861</v>
       </c>
       <c r="H24">
-        <v>0.0003157379529419302</v>
+        <v>9.353305447601379E-05</v>
       </c>
       <c r="I24">
-        <v>0.006681620954442913</v>
+        <v>0.004833808633671666</v>
       </c>
       <c r="J24">
-        <v>0.2383324781378491</v>
+        <v>0.2587565068566207</v>
       </c>
       <c r="K24">
-        <v>0.3724982709207225</v>
+        <v>0.3226700413103831</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1378930592456467</v>
       </c>
       <c r="M24">
-        <v>1.78159229200304</v>
+        <v>0.1065953620276812</v>
       </c>
       <c r="N24">
-        <v>0.4421139331933119</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.813265089547855</v>
       </c>
       <c r="P24">
-        <v>0.7806033113938611</v>
+        <v>0.4632435642577946</v>
       </c>
       <c r="Q24">
-        <v>1.105609062503646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7723330516281877</v>
+      </c>
+      <c r="S24">
+        <v>1.054277688795793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9547521124618186</v>
+        <v>0.8699216644945693</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08155364777045548</v>
+        <v>0.08365023283706563</v>
       </c>
       <c r="E25">
-        <v>0.1642271855734219</v>
+        <v>0.1435561483635936</v>
       </c>
       <c r="F25">
-        <v>0.3929221510928116</v>
+        <v>0.3813410407736697</v>
       </c>
       <c r="G25">
-        <v>0.2735953146080234</v>
+        <v>0.2539726728951237</v>
       </c>
       <c r="H25">
-        <v>0.001263778276708982</v>
+        <v>0.0006885063149795201</v>
       </c>
       <c r="I25">
-        <v>0.009150071619681732</v>
+        <v>0.006516310600060748</v>
       </c>
       <c r="J25">
-        <v>0.228531977349725</v>
+        <v>0.2579437674470384</v>
       </c>
       <c r="K25">
-        <v>0.379092568199674</v>
+        <v>0.3325241083647477</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1458204170759316</v>
       </c>
       <c r="M25">
-        <v>1.491415478386898</v>
+        <v>0.1053951260416959</v>
       </c>
       <c r="N25">
-        <v>0.3642631824090188</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.511021355179821</v>
       </c>
       <c r="P25">
-        <v>0.8155711138875823</v>
+        <v>0.380602865348564</v>
       </c>
       <c r="Q25">
-        <v>1.008613725708159</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7983707122551209</v>
+      </c>
+      <c r="S25">
+        <v>0.9732912471006046</v>
       </c>
     </row>
   </sheetData>
